--- a/graphs/benchmark_locking 4x i7-3770K @ 3.50Ghz Win10 20.075Gb bandwidth.xlsx
+++ b/graphs/benchmark_locking 4x i7-3770K @ 3.50Ghz Win10 20.075Gb bandwidth.xlsx
@@ -7,16 +7,19 @@
     <workbookView xWindow="0" yWindow="30" windowWidth="16275" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="32">
   <si>
     <t>lock_files</t>
   </si>
@@ -104,12 +107,21 @@
   <si>
     <t>4x</t>
   </si>
+  <si>
+    <t>NTFS</t>
+  </si>
+  <si>
+    <t>ReFS</t>
+  </si>
+  <si>
+    <t>FAT32</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,6 +130,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -146,9 +166,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -209,6 +232,397 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-IE"/>
+              <a:t>Scaling of four concurrent users of uncontended lock files to entities</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>NTFS</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$43:$I$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>16912</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8265</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5479</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4051</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3217</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2683</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2322</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1989</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="221510272"/>
+        <c:axId val="221590272"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="221510272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IE"/>
+                  <a:t>Entities</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="221590272"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="221590272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IE"/>
+                  <a:t>Max ops/sec</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="221510272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1600"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-GB"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IE"/>
+              <a:t>Scaling</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IE" baseline="0"/>
+              <a:t> of byte range locks to concurrency on NTFS</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="en-IE" baseline="0"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="en-IE" baseline="0"/>
+              <a:t>(2 core 4 thread CPU)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Contended 1 entity</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="50800">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$18:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1598513</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>388474</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>305784</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>304873</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>301301</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>292616</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>305466</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>300923</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="50800">
+              <a:solidFill>
+                <a:srgbClr val="00FF00"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$F$51:$F$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>333526</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>407782</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>402554</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>357823</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>333565</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>322010</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>309427</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>298870</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="222339072"/>
+        <c:axId val="222340992"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="222339072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IE"/>
+                  <a:t>Concurrency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="222340992"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="222340992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IE"/>
+                  <a:t>Max</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-IE" baseline="0"/>
+                  <a:t> ops/sec</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-IE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="222339072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1600"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-GB"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IE"/>
               <a:t>Lock</a:t>
             </a:r>
             <a:r>
@@ -896,24 +1310,24 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="100172928"/>
-        <c:axId val="100174464"/>
+        <c:axId val="92315648"/>
+        <c:axId val="92317184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="100172928"/>
+        <c:axId val="92315648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100174464"/>
+        <c:crossAx val="92317184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100174464"/>
+        <c:axId val="92317184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="18000"/>
@@ -940,7 +1354,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100172928"/>
+        <c:crossAx val="92315648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -953,843 +1367,13 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-GB"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-IE" baseline="0"/>
-              <a:t>2 waiters Uncontended on Machine B</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-IE"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>lock_files</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$41:$I$41</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>13943</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6371</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4297</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3231</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2610</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2170</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1895</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1694</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$16</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>byte_ranges</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$52:$I$52</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>2210585</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1123352</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>690616</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>512940</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>404276</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>328307</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>279783</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>244569</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$27</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>atomic_append</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$6:$I$6</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1 entities</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2 entities</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3 entities</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4 entities</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5 entities</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6 entities</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7 entities</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8 entities</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$63:$I$63</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>148582</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>146033</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>148795</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>145835</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>147535</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>145948</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>148990</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>147037</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="129636224"/>
-        <c:axId val="129637760"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="129636224"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129637760"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="129637760"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-IE"/>
-                  <a:t>Ops/sec</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129636224"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-GB"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-IE" baseline="0"/>
-              <a:t>4 waiters Uncontended on Machine B</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-IE"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>lock_files</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$43:$I$43</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>14999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7366</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4982</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3810</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2973</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2520</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2156</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1938</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$16</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>byte_ranges</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$54:$I$54</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>2384764</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1001586</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>607072</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>426620</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>326913</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>265875</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>221184</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>190402</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$27</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>atomic_append</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$6:$I$6</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1 entities</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2 entities</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3 entities</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4 entities</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5 entities</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6 entities</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7 entities</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8 entities</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$65:$I$65</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>144884</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>160038</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>145791</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>138641</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>150922</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>156347</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>149522</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>138977</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="129696896"/>
-        <c:axId val="129698432"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="129696896"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129698432"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="129698432"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="2500000"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-IE"/>
-                  <a:t>Ops/sec</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129696896"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-GB"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-IE" baseline="0"/>
-              <a:t>8 waiters Uncontended on Machine B</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-IE"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>lock_files</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$47:$I$47</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>15992</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7519</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5102</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3909</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3073</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2594</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2247</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1963</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$16</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>byte_ranges</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$58:$I$58</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1675135</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>751762</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>468787</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>334033</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>261776</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>211916</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>178607</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>154374</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$27</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>atomic_append</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$6:$I$6</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1 entities</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2 entities</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3 entities</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4 entities</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5 entities</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6 entities</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7 entities</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8 entities</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$69:$I$69</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>114281</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>115311</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>114577</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>113276</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>114858</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>114976</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>113605</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>115101</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="129737088"/>
-        <c:axId val="129738624"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="129737088"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129738624"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="129738624"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="2500000"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-IE"/>
-                  <a:t>Ops/sec</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129737088"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-GB"/>
   <c:chart>
@@ -2491,24 +2075,24 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="102146816"/>
-        <c:axId val="102148352"/>
+        <c:axId val="92236800"/>
+        <c:axId val="92242688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="102146816"/>
+        <c:axId val="92236800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102148352"/>
+        <c:crossAx val="92242688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102148352"/>
+        <c:axId val="92242688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3000000"/>
@@ -2535,7 +2119,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102146816"/>
+        <c:crossAx val="92236800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2548,13 +2132,13 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-GB"/>
   <c:chart>
@@ -3252,24 +2836,24 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="102093184"/>
-        <c:axId val="102094720"/>
+        <c:axId val="92375680"/>
+        <c:axId val="92393856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="102093184"/>
+        <c:axId val="92375680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102094720"/>
+        <c:crossAx val="92393856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102094720"/>
+        <c:axId val="92393856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="180000"/>
@@ -3296,7 +2880,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102093184"/>
+        <c:crossAx val="92375680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3309,13 +2893,13 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-GB"/>
   <c:chart>
@@ -3529,24 +3113,24 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="102177792"/>
-        <c:axId val="102200064"/>
+        <c:axId val="92435968"/>
+        <c:axId val="92437504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="102177792"/>
+        <c:axId val="92435968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102200064"/>
+        <c:crossAx val="92437504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102200064"/>
+        <c:axId val="92437504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2500000"/>
@@ -3573,7 +3157,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102177792"/>
+        <c:crossAx val="92435968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3586,13 +3170,13 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-GB"/>
   <c:chart>
@@ -3613,7 +3197,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -3806,24 +3389,24 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="102222464"/>
-        <c:axId val="129307008"/>
+        <c:axId val="92456064"/>
+        <c:axId val="92457600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="102222464"/>
+        <c:axId val="92456064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129307008"/>
+        <c:crossAx val="92457600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="129307008"/>
+        <c:axId val="92457600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2500000"/>
@@ -3846,30 +3429,28 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102222464"/>
+        <c:crossAx val="92456064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-GB"/>
   <c:chart>
@@ -3890,7 +3471,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -4083,24 +3663,24 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="129337216"/>
-        <c:axId val="129338752"/>
+        <c:axId val="92516736"/>
+        <c:axId val="92518272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="129337216"/>
+        <c:axId val="92516736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129338752"/>
+        <c:crossAx val="92518272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="129338752"/>
+        <c:axId val="92518272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2500000"/>
@@ -4123,30 +3703,28 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129337216"/>
+        <c:crossAx val="92516736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-GB"/>
   <c:chart>
@@ -4848,24 +4426,24 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="129483520"/>
-        <c:axId val="129485056"/>
+        <c:axId val="92646400"/>
+        <c:axId val="92660480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="129483520"/>
+        <c:axId val="92646400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129485056"/>
+        <c:crossAx val="92660480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="129485056"/>
+        <c:axId val="92660480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4891,7 +4469,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129483520"/>
+        <c:crossAx val="92646400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4904,13 +4482,13 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-GB"/>
   <c:chart>
@@ -5612,24 +5190,24 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="129556480"/>
-        <c:axId val="129558016"/>
+        <c:axId val="92576000"/>
+        <c:axId val="92598272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="129556480"/>
+        <c:axId val="92576000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129558016"/>
+        <c:crossAx val="92598272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="129558016"/>
+        <c:axId val="92598272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5655,7 +5233,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129556480"/>
+        <c:crossAx val="92576000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5668,13 +5246,13 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-GB"/>
   <c:chart>
@@ -6372,24 +5950,24 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="129612416"/>
-        <c:axId val="129622400"/>
+        <c:axId val="92788224"/>
+        <c:axId val="92789760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="129612416"/>
+        <c:axId val="92788224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129622400"/>
+        <c:crossAx val="92789760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="129622400"/>
+        <c:axId val="92789760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6415,7 +5993,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129612416"/>
+        <c:crossAx val="92788224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6428,13 +6006,3396 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-GB"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IE"/>
+              <a:t>Scaling of four concurrent users of uncontended byte</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IE" baseline="0"/>
+              <a:t> range locks</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IE"/>
+              <a:t> to entities</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>NTFS</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet2!$B$54:$I$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1077461</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>535494</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>348619</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>245531</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>197498</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>155970</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>138553</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>118115</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>ReFS</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet2!$L$54:$S$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>132911</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61955</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>119189</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64402</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40900</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>47368</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27307</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16595</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>FAT32</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet2!$V$54:$AC$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1733640</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>748291</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>445838</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>306652</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>230967</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>189784</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>157505</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>136059</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>exFAT</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet2!$AF$54:$AM$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1701304</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>740913</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>441650</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>299441</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>229149</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>182145</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>153369</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>134874</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="221633536"/>
+        <c:axId val="221648000"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="221633536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IE"/>
+                  <a:t>Entities</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="221648000"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="221648000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IE"/>
+                  <a:t>Max ops/sec</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="221633536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1600"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-GB"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IE" baseline="0"/>
+              <a:t>2 waiters Uncontended on Machine B</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>lock_files</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$41:$I$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>13943</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6371</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4297</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3231</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2610</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2170</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1895</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1694</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>byte_ranges</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$52:$I$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2210585</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1123352</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>690616</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512940</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>404276</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>328307</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>279783</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>244569</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>atomic_append</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$6:$I$6</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1 entities</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 entities</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3 entities</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4 entities</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5 entities</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6 entities</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7 entities</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8 entities</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$63:$I$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>148582</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>146033</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>148795</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>145835</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>147535</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>145948</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>148990</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>147037</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="92828416"/>
+        <c:axId val="92829952"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="92828416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="92829952"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="92829952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IE"/>
+                  <a:t>Ops/sec</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="92828416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-GB"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IE" baseline="0"/>
+              <a:t>4 waiters Uncontended on Machine B</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>lock_files</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$43:$I$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>14999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7366</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4982</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2973</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2520</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2156</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1938</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>byte_ranges</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$54:$I$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2384764</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1001586</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>607072</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>426620</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>326913</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>265875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>221184</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>190402</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>atomic_append</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$6:$I$6</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1 entities</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 entities</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3 entities</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4 entities</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5 entities</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6 entities</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7 entities</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8 entities</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$65:$I$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>144884</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>160038</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>145791</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>138641</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150922</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>156347</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>149522</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>138977</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="92868608"/>
+        <c:axId val="92870144"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="92868608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="92870144"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="92870144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2500000"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IE"/>
+                  <a:t>Ops/sec</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="92868608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-GB"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IE" baseline="0"/>
+              <a:t>8 waiters Uncontended on Machine B</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>lock_files</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$47:$I$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>15992</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7519</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5102</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3909</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3073</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2594</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2247</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1963</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>byte_ranges</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$58:$I$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1675135</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>751762</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>468787</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>334033</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>261776</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>211916</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>178607</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>154374</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>atomic_append</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$6:$I$6</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1 entities</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 entities</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3 entities</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4 entities</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5 entities</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6 entities</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7 entities</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8 entities</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$69:$I$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>114281</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>115311</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>114577</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>113276</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>114858</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>114976</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>113605</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>115101</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="92900352"/>
+        <c:axId val="92910336"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="92900352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="92910336"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="92910336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2500000"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IE"/>
+                  <a:t>Ops/sec</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="92900352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-GB"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IE"/>
+              <a:t>Scaling of four concurrent users of uncontended atomic</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IE" baseline="0"/>
+              <a:t> append locks</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IE"/>
+              <a:t> to entities</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>NTFS</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet2!$B$65:$I$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>86871</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>87444</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>87234</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>89427</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85681</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88254</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>87496</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>88889</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>ReFS</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet2!$L$65:$S$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>63048</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>63258</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>63254</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63073</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63123</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>63038</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>63094</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>62986</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>FAT32</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet2!$V$65:$AC$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>94863</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>95024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>95791</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>96045</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95350</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>95189</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>95761</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>95345</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>exFAT</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet2!$AF$65:$AM$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>96164</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96415</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>96510</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>96234</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95838</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96418</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>96236</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>95848</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="221687168"/>
+        <c:axId val="221709824"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="221687168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IE"/>
+                  <a:t>Entities</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="221709824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="221709824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IE"/>
+                  <a:t>Max ops/sec</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="221687168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1600"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-GB"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IE"/>
+              <a:t>Scaling of four concurrent users of the</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IE" baseline="0"/>
+              <a:t> lock algorithms</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IE"/>
+              <a:t> to entities on NTFS</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>lock files</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet2!$B$43:$I$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3742</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1884</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1204</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>906</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>746</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>608</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>440</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>byte range</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet2!$B$54:$I$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1077461</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>535494</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>348619</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>245531</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>197498</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>155970</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>138553</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>118115</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>atomic append</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet2!$B$65:$I$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>86871</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>87444</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>87234</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>89427</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85681</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88254</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>87496</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>88889</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="221731840"/>
+        <c:axId val="221754496"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="221731840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IE"/>
+                  <a:t>Entities</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="221754496"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="221754496"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="100"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IE"/>
+                  <a:t>Max ops/sec</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="221731840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1600"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-GB"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IE"/>
+              <a:t>Scaling of two</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IE" baseline="0"/>
+              <a:t> contended users of</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IE"/>
+              <a:t> lock files to</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="en-IE"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="en-IE"/>
+              <a:t>entities</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>NTFS</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet2!$B$8:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3663</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1717</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1058</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>749</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>499</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>173</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>ReFS</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet2!$L$8:$S$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1721</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>856</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>FAT32</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet2!$V$8:$AC$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3702</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1972</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>exFAT</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet2!$AF$8:$AM$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2912</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>810</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>185</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="221821952"/>
+        <c:axId val="221836416"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="221821952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IE"/>
+                  <a:t>Entities</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="221836416"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="221836416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IE"/>
+                  <a:t>Max ops/sec</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="221821952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1600"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-GB"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IE"/>
+              <a:t>Scaling of two</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IE" baseline="0"/>
+              <a:t> contended users of</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IE"/>
+              <a:t> byte</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IE" baseline="0"/>
+              <a:t> range locks</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IE"/>
+              <a:t> to entities</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>NTFS</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet2!$B$19:$I$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>395879</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>142159</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120077</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58698</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>87180</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>76342</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45294</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25083</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>ReFS</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet2!$L$19:$S$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>147105</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>95502</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49844</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>98065</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>94209</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25537</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34731</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22051</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>FAT32</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet2!$V$19:$AC$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>257238</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67785</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64820</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>111818</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>144412</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>115606</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>67078</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23677</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>exFAT</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet2!$AF$19:$AM$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>303808</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>144943</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>83696</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>111243</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>136074</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>66560</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33090</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25279</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="221887872"/>
+        <c:axId val="222037504"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="221887872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IE"/>
+                  <a:t>Entities</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="222037504"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="222037504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IE"/>
+                  <a:t>Max ops/sec</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="221887872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1600"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-GB"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IE"/>
+              <a:t>Scaling of two</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IE" baseline="0"/>
+              <a:t> contended users of</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IE"/>
+              <a:t> atomic</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IE" baseline="0"/>
+              <a:t> append locks</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IE"/>
+              <a:t> to entities</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>NTFS</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet2!$B$30:$I$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>83489</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85748</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81203</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>79872</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70425</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>76958</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>77422</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>81651</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>ReFS</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet2!$L$30:$S$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>69587</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53963</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53596</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55971</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>57507</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>52513</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41748</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>52999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>FAT32</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet2!$V$30:$AC$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>113249</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>111361</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>105834</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>104316</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>114361</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>112666</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80450</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>78941</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>exFAT</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet2!$AF$30:$AM$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>89396</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>114035</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>112316</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>89724</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>61888</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>89214</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>83526</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>116452</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="222068096"/>
+        <c:axId val="222082560"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="222068096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IE"/>
+                  <a:t>Entities</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="222082560"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="222082560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IE"/>
+                  <a:t>Max ops/sec</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="222068096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1600"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-GB"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IE"/>
+              <a:t>Scaling of two contended users of the</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IE" baseline="0"/>
+              <a:t> lock algorithms</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IE"/>
+              <a:t> to entities on NTFS</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>lock files</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet2!$B$8:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3663</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1717</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1058</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>749</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>499</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>173</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>byte range</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet2!$B$19:$I$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>395879</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>142159</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120077</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58698</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>87180</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>76342</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45294</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25083</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>atomic append</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet2!$B$30:$I$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>83489</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85748</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81203</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>79872</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70425</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>76958</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>77422</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>81651</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="222133248"/>
+        <c:axId val="222139520"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="222133248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IE"/>
+                  <a:t>Entities</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="222139520"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="222139520"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="100"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IE"/>
+                  <a:t>Max ops/sec</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="222133248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1600"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-GB"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IE"/>
+              <a:t>Scaling</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IE" baseline="0"/>
+              <a:t> of byte range locks to concurrency on NTFS</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="en-IE" baseline="0"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="en-IE" baseline="0"/>
+              <a:t>(2 core 4 thread CPU)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Uncontended</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="50800">
+              <a:solidFill>
+                <a:srgbClr val="00FF00"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$51:$B$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1652489</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2309579</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2775624</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2771201</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2491567</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2365795</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2235956</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2128187</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Contended</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="50800">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$18:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1598513</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>388474</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>305784</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>304873</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>301301</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>292616</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>305466</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>300923</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="222217344"/>
+        <c:axId val="222219264"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="222217344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IE"/>
+                  <a:t>Concurrency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="222219264"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="222219264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IE"/>
+                  <a:t>Max</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-IE" baseline="0"/>
+                  <a:t> ops/sec</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-IE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="222217344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1600"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>377850</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>49425</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>368325</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>182775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>387375</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>154200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>25425</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>58950</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>396900</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>116100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>435000</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>106575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>444525</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>106575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>196875</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>135150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>262500</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>30975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 13"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>72000</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>40500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Chart 14"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6799,6 +9760,701 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="B8">
+            <v>3663</v>
+          </cell>
+          <cell r="C8">
+            <v>1717</v>
+          </cell>
+          <cell r="D8">
+            <v>1058</v>
+          </cell>
+          <cell r="E8">
+            <v>749</v>
+          </cell>
+          <cell r="F8">
+            <v>660</v>
+          </cell>
+          <cell r="G8">
+            <v>499</v>
+          </cell>
+          <cell r="H8">
+            <v>333</v>
+          </cell>
+          <cell r="I8">
+            <v>173</v>
+          </cell>
+          <cell r="L8">
+            <v>1721</v>
+          </cell>
+          <cell r="M8">
+            <v>856</v>
+          </cell>
+          <cell r="N8">
+            <v>274</v>
+          </cell>
+          <cell r="O8">
+            <v>172</v>
+          </cell>
+          <cell r="P8">
+            <v>137</v>
+          </cell>
+          <cell r="Q8">
+            <v>96</v>
+          </cell>
+          <cell r="R8">
+            <v>82</v>
+          </cell>
+          <cell r="S8">
+            <v>75</v>
+          </cell>
+          <cell r="V8">
+            <v>3702</v>
+          </cell>
+          <cell r="W8">
+            <v>1972</v>
+          </cell>
+          <cell r="X8">
+            <v>1118</v>
+          </cell>
+          <cell r="Y8">
+            <v>590</v>
+          </cell>
+          <cell r="Z8">
+            <v>443</v>
+          </cell>
+          <cell r="AA8">
+            <v>359</v>
+          </cell>
+          <cell r="AB8">
+            <v>296</v>
+          </cell>
+          <cell r="AC8">
+            <v>251</v>
+          </cell>
+          <cell r="AF8">
+            <v>2912</v>
+          </cell>
+          <cell r="AG8">
+            <v>1625</v>
+          </cell>
+          <cell r="AH8">
+            <v>810</v>
+          </cell>
+          <cell r="AI8">
+            <v>397</v>
+          </cell>
+          <cell r="AJ8">
+            <v>315</v>
+          </cell>
+          <cell r="AK8">
+            <v>252</v>
+          </cell>
+          <cell r="AL8">
+            <v>213</v>
+          </cell>
+          <cell r="AM8">
+            <v>185</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18">
+            <v>577811</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19">
+            <v>395879</v>
+          </cell>
+          <cell r="C19">
+            <v>142159</v>
+          </cell>
+          <cell r="D19">
+            <v>120077</v>
+          </cell>
+          <cell r="E19">
+            <v>58698</v>
+          </cell>
+          <cell r="F19">
+            <v>87180</v>
+          </cell>
+          <cell r="G19">
+            <v>76342</v>
+          </cell>
+          <cell r="H19">
+            <v>45294</v>
+          </cell>
+          <cell r="I19">
+            <v>25083</v>
+          </cell>
+          <cell r="L19">
+            <v>147105</v>
+          </cell>
+          <cell r="M19">
+            <v>95502</v>
+          </cell>
+          <cell r="N19">
+            <v>49844</v>
+          </cell>
+          <cell r="O19">
+            <v>98065</v>
+          </cell>
+          <cell r="P19">
+            <v>94209</v>
+          </cell>
+          <cell r="Q19">
+            <v>25537</v>
+          </cell>
+          <cell r="R19">
+            <v>34731</v>
+          </cell>
+          <cell r="S19">
+            <v>22051</v>
+          </cell>
+          <cell r="V19">
+            <v>257238</v>
+          </cell>
+          <cell r="W19">
+            <v>67785</v>
+          </cell>
+          <cell r="X19">
+            <v>64820</v>
+          </cell>
+          <cell r="Y19">
+            <v>111818</v>
+          </cell>
+          <cell r="Z19">
+            <v>144412</v>
+          </cell>
+          <cell r="AA19">
+            <v>115606</v>
+          </cell>
+          <cell r="AB19">
+            <v>67078</v>
+          </cell>
+          <cell r="AC19">
+            <v>23677</v>
+          </cell>
+          <cell r="AF19">
+            <v>303808</v>
+          </cell>
+          <cell r="AG19">
+            <v>144943</v>
+          </cell>
+          <cell r="AH19">
+            <v>83696</v>
+          </cell>
+          <cell r="AI19">
+            <v>111243</v>
+          </cell>
+          <cell r="AJ19">
+            <v>136074</v>
+          </cell>
+          <cell r="AK19">
+            <v>66560</v>
+          </cell>
+          <cell r="AL19">
+            <v>33090</v>
+          </cell>
+          <cell r="AM19">
+            <v>25279</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20">
+            <v>201341</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21">
+            <v>212394</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22">
+            <v>202346</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23">
+            <v>188840</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24">
+            <v>191017</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="B25">
+            <v>212472</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="B30">
+            <v>83489</v>
+          </cell>
+          <cell r="C30">
+            <v>85748</v>
+          </cell>
+          <cell r="D30">
+            <v>81203</v>
+          </cell>
+          <cell r="E30">
+            <v>79872</v>
+          </cell>
+          <cell r="F30">
+            <v>70425</v>
+          </cell>
+          <cell r="G30">
+            <v>76958</v>
+          </cell>
+          <cell r="H30">
+            <v>77422</v>
+          </cell>
+          <cell r="I30">
+            <v>81651</v>
+          </cell>
+          <cell r="L30">
+            <v>69587</v>
+          </cell>
+          <cell r="M30">
+            <v>53963</v>
+          </cell>
+          <cell r="N30">
+            <v>53596</v>
+          </cell>
+          <cell r="O30">
+            <v>55971</v>
+          </cell>
+          <cell r="P30">
+            <v>57507</v>
+          </cell>
+          <cell r="Q30">
+            <v>52513</v>
+          </cell>
+          <cell r="R30">
+            <v>41748</v>
+          </cell>
+          <cell r="S30">
+            <v>52999</v>
+          </cell>
+          <cell r="V30">
+            <v>113249</v>
+          </cell>
+          <cell r="W30">
+            <v>111361</v>
+          </cell>
+          <cell r="X30">
+            <v>105834</v>
+          </cell>
+          <cell r="Y30">
+            <v>104316</v>
+          </cell>
+          <cell r="Z30">
+            <v>114361</v>
+          </cell>
+          <cell r="AA30">
+            <v>112666</v>
+          </cell>
+          <cell r="AB30">
+            <v>80450</v>
+          </cell>
+          <cell r="AC30">
+            <v>78941</v>
+          </cell>
+          <cell r="AF30">
+            <v>89396</v>
+          </cell>
+          <cell r="AG30">
+            <v>114035</v>
+          </cell>
+          <cell r="AH30">
+            <v>112316</v>
+          </cell>
+          <cell r="AI30">
+            <v>89724</v>
+          </cell>
+          <cell r="AJ30">
+            <v>61888</v>
+          </cell>
+          <cell r="AK30">
+            <v>89214</v>
+          </cell>
+          <cell r="AL30">
+            <v>83526</v>
+          </cell>
+          <cell r="AM30">
+            <v>116452</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="B43">
+            <v>3742</v>
+          </cell>
+          <cell r="C43">
+            <v>1884</v>
+          </cell>
+          <cell r="D43">
+            <v>1204</v>
+          </cell>
+          <cell r="E43">
+            <v>906</v>
+          </cell>
+          <cell r="F43">
+            <v>746</v>
+          </cell>
+          <cell r="G43">
+            <v>608</v>
+          </cell>
+          <cell r="H43">
+            <v>510</v>
+          </cell>
+          <cell r="I43">
+            <v>440</v>
+          </cell>
+          <cell r="L43">
+            <v>2224</v>
+          </cell>
+          <cell r="M43">
+            <v>1112</v>
+          </cell>
+          <cell r="N43">
+            <v>698</v>
+          </cell>
+          <cell r="O43">
+            <v>523</v>
+          </cell>
+          <cell r="P43">
+            <v>430</v>
+          </cell>
+          <cell r="Q43">
+            <v>357</v>
+          </cell>
+          <cell r="R43">
+            <v>290</v>
+          </cell>
+          <cell r="S43">
+            <v>266</v>
+          </cell>
+          <cell r="V43">
+            <v>6044</v>
+          </cell>
+          <cell r="W43">
+            <v>2978</v>
+          </cell>
+          <cell r="X43">
+            <v>1963</v>
+          </cell>
+          <cell r="Y43">
+            <v>1456</v>
+          </cell>
+          <cell r="Z43">
+            <v>1166</v>
+          </cell>
+          <cell r="AA43">
+            <v>962</v>
+          </cell>
+          <cell r="AB43">
+            <v>815</v>
+          </cell>
+          <cell r="AC43">
+            <v>713</v>
+          </cell>
+          <cell r="AF43">
+            <v>5299</v>
+          </cell>
+          <cell r="AG43">
+            <v>2595</v>
+          </cell>
+          <cell r="AH43">
+            <v>1688</v>
+          </cell>
+          <cell r="AI43">
+            <v>1258</v>
+          </cell>
+          <cell r="AJ43">
+            <v>988</v>
+          </cell>
+          <cell r="AK43">
+            <v>817</v>
+          </cell>
+          <cell r="AL43">
+            <v>696</v>
+          </cell>
+          <cell r="AM43">
+            <v>602</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="B51">
+            <v>591620</v>
+          </cell>
+          <cell r="E51">
+            <v>151854</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="B52">
+            <v>873678</v>
+          </cell>
+          <cell r="E52">
+            <v>213171</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="B53">
+            <v>1013366</v>
+          </cell>
+          <cell r="E53">
+            <v>227890</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="B54">
+            <v>1077461</v>
+          </cell>
+          <cell r="C54">
+            <v>535494</v>
+          </cell>
+          <cell r="D54">
+            <v>348619</v>
+          </cell>
+          <cell r="E54">
+            <v>245531</v>
+          </cell>
+          <cell r="F54">
+            <v>197498</v>
+          </cell>
+          <cell r="G54">
+            <v>155970</v>
+          </cell>
+          <cell r="H54">
+            <v>138553</v>
+          </cell>
+          <cell r="I54">
+            <v>118115</v>
+          </cell>
+          <cell r="L54">
+            <v>132911</v>
+          </cell>
+          <cell r="M54">
+            <v>61955</v>
+          </cell>
+          <cell r="N54">
+            <v>119189</v>
+          </cell>
+          <cell r="O54">
+            <v>64402</v>
+          </cell>
+          <cell r="P54">
+            <v>40900</v>
+          </cell>
+          <cell r="Q54">
+            <v>47368</v>
+          </cell>
+          <cell r="R54">
+            <v>27307</v>
+          </cell>
+          <cell r="S54">
+            <v>16595</v>
+          </cell>
+          <cell r="V54">
+            <v>1733640</v>
+          </cell>
+          <cell r="W54">
+            <v>748291</v>
+          </cell>
+          <cell r="X54">
+            <v>445838</v>
+          </cell>
+          <cell r="Y54">
+            <v>306652</v>
+          </cell>
+          <cell r="Z54">
+            <v>230967</v>
+          </cell>
+          <cell r="AA54">
+            <v>189784</v>
+          </cell>
+          <cell r="AB54">
+            <v>157505</v>
+          </cell>
+          <cell r="AC54">
+            <v>136059</v>
+          </cell>
+          <cell r="AF54">
+            <v>1701304</v>
+          </cell>
+          <cell r="AG54">
+            <v>740913</v>
+          </cell>
+          <cell r="AH54">
+            <v>441650</v>
+          </cell>
+          <cell r="AI54">
+            <v>299441</v>
+          </cell>
+          <cell r="AJ54">
+            <v>229149</v>
+          </cell>
+          <cell r="AK54">
+            <v>182145</v>
+          </cell>
+          <cell r="AL54">
+            <v>153369</v>
+          </cell>
+          <cell r="AM54">
+            <v>134874</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="B55">
+            <v>1066335</v>
+          </cell>
+          <cell r="E55">
+            <v>250788</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="B56">
+            <v>1062478</v>
+          </cell>
+          <cell r="E56">
+            <v>250581</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="B57">
+            <v>1044140</v>
+          </cell>
+          <cell r="E57">
+            <v>246945</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="B58">
+            <v>1039428</v>
+          </cell>
+          <cell r="E58">
+            <v>247347</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="B65">
+            <v>86871</v>
+          </cell>
+          <cell r="C65">
+            <v>87444</v>
+          </cell>
+          <cell r="D65">
+            <v>87234</v>
+          </cell>
+          <cell r="E65">
+            <v>89427</v>
+          </cell>
+          <cell r="F65">
+            <v>85681</v>
+          </cell>
+          <cell r="G65">
+            <v>88254</v>
+          </cell>
+          <cell r="H65">
+            <v>87496</v>
+          </cell>
+          <cell r="I65">
+            <v>88889</v>
+          </cell>
+          <cell r="L65">
+            <v>63048</v>
+          </cell>
+          <cell r="M65">
+            <v>63258</v>
+          </cell>
+          <cell r="N65">
+            <v>63254</v>
+          </cell>
+          <cell r="O65">
+            <v>63073</v>
+          </cell>
+          <cell r="P65">
+            <v>63123</v>
+          </cell>
+          <cell r="Q65">
+            <v>63038</v>
+          </cell>
+          <cell r="R65">
+            <v>63094</v>
+          </cell>
+          <cell r="S65">
+            <v>62986</v>
+          </cell>
+          <cell r="V65">
+            <v>94863</v>
+          </cell>
+          <cell r="W65">
+            <v>95024</v>
+          </cell>
+          <cell r="X65">
+            <v>95791</v>
+          </cell>
+          <cell r="Y65">
+            <v>96045</v>
+          </cell>
+          <cell r="Z65">
+            <v>95350</v>
+          </cell>
+          <cell r="AA65">
+            <v>95189</v>
+          </cell>
+          <cell r="AB65">
+            <v>95761</v>
+          </cell>
+          <cell r="AC65">
+            <v>95345</v>
+          </cell>
+          <cell r="AF65">
+            <v>96164</v>
+          </cell>
+          <cell r="AG65">
+            <v>96415</v>
+          </cell>
+          <cell r="AH65">
+            <v>96510</v>
+          </cell>
+          <cell r="AI65">
+            <v>96234</v>
+          </cell>
+          <cell r="AJ65">
+            <v>95838</v>
+          </cell>
+          <cell r="AK65">
+            <v>96418</v>
+          </cell>
+          <cell r="AL65">
+            <v>96236</v>
+          </cell>
+          <cell r="AM65">
+            <v>95848</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -7084,10 +10740,1944 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AC69"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="AN25" sqref="AN25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:29">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29">
+      <c r="A3">
+        <f>21555367116/1024/1024/1024</f>
+        <v>20.074999999254942</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29">
+      <c r="A4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="K4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="U4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+    </row>
+    <row r="5" spans="1:29">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>11273</v>
+      </c>
+      <c r="C7">
+        <v>5702</v>
+      </c>
+      <c r="D7">
+        <v>3888</v>
+      </c>
+      <c r="E7">
+        <v>2858</v>
+      </c>
+      <c r="F7">
+        <v>2347</v>
+      </c>
+      <c r="G7">
+        <v>1933</v>
+      </c>
+      <c r="H7">
+        <v>1627</v>
+      </c>
+      <c r="I7">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>10143</v>
+      </c>
+      <c r="C8">
+        <v>6213</v>
+      </c>
+      <c r="D8">
+        <v>3723</v>
+      </c>
+      <c r="E8">
+        <v>1104</v>
+      </c>
+      <c r="F8">
+        <v>844</v>
+      </c>
+      <c r="G8">
+        <v>660</v>
+      </c>
+      <c r="H8">
+        <v>486</v>
+      </c>
+      <c r="I8">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>8616</v>
+      </c>
+      <c r="C9">
+        <v>5462</v>
+      </c>
+      <c r="D9">
+        <v>1812</v>
+      </c>
+      <c r="E9">
+        <v>851</v>
+      </c>
+      <c r="F9">
+        <v>555</v>
+      </c>
+      <c r="G9">
+        <v>416</v>
+      </c>
+      <c r="H9">
+        <v>326</v>
+      </c>
+      <c r="I9">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>7516</v>
+      </c>
+      <c r="C10">
+        <v>4978</v>
+      </c>
+      <c r="D10">
+        <v>1227</v>
+      </c>
+      <c r="E10">
+        <v>563</v>
+      </c>
+      <c r="F10">
+        <v>344</v>
+      </c>
+      <c r="G10">
+        <v>217</v>
+      </c>
+      <c r="H10">
+        <v>154</v>
+      </c>
+      <c r="I10">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>6408</v>
+      </c>
+      <c r="C11">
+        <v>4334</v>
+      </c>
+      <c r="D11">
+        <v>794</v>
+      </c>
+      <c r="E11">
+        <v>353</v>
+      </c>
+      <c r="F11">
+        <v>222</v>
+      </c>
+      <c r="G11">
+        <v>130</v>
+      </c>
+      <c r="H11">
+        <v>83</v>
+      </c>
+      <c r="I11">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12">
+        <v>5596</v>
+      </c>
+      <c r="C12">
+        <v>3948</v>
+      </c>
+      <c r="D12">
+        <v>584</v>
+      </c>
+      <c r="E12">
+        <v>257</v>
+      </c>
+      <c r="F12">
+        <v>152</v>
+      </c>
+      <c r="G12">
+        <v>77</v>
+      </c>
+      <c r="H12">
+        <v>53</v>
+      </c>
+      <c r="I12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>4883</v>
+      </c>
+      <c r="C13">
+        <v>3596</v>
+      </c>
+      <c r="D13">
+        <v>485</v>
+      </c>
+      <c r="E13">
+        <v>216</v>
+      </c>
+      <c r="F13">
+        <v>115</v>
+      </c>
+      <c r="G13">
+        <v>52</v>
+      </c>
+      <c r="H13">
+        <v>37</v>
+      </c>
+      <c r="I13">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14">
+        <v>4372</v>
+      </c>
+      <c r="C14">
+        <v>2159</v>
+      </c>
+      <c r="D14">
+        <v>607</v>
+      </c>
+      <c r="E14">
+        <v>166</v>
+      </c>
+      <c r="F14">
+        <v>75</v>
+      </c>
+      <c r="G14">
+        <v>47</v>
+      </c>
+      <c r="H14">
+        <v>23</v>
+      </c>
+      <c r="I14">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <v>1598513</v>
+      </c>
+      <c r="C18">
+        <v>825206</v>
+      </c>
+      <c r="D18">
+        <v>557265</v>
+      </c>
+      <c r="E18">
+        <v>413820</v>
+      </c>
+      <c r="F18">
+        <v>301615</v>
+      </c>
+      <c r="G18">
+        <v>261338</v>
+      </c>
+      <c r="H18">
+        <v>229702</v>
+      </c>
+      <c r="I18">
+        <v>201692</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>388474</v>
+      </c>
+      <c r="C19">
+        <v>225099</v>
+      </c>
+      <c r="D19">
+        <v>228155</v>
+      </c>
+      <c r="E19">
+        <v>190046</v>
+      </c>
+      <c r="F19">
+        <v>170091</v>
+      </c>
+      <c r="G19">
+        <v>161236</v>
+      </c>
+      <c r="H19">
+        <v>145383</v>
+      </c>
+      <c r="I19">
+        <v>137917</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <v>305784</v>
+      </c>
+      <c r="C20">
+        <v>252857</v>
+      </c>
+      <c r="D20">
+        <v>215760</v>
+      </c>
+      <c r="E20">
+        <v>201492</v>
+      </c>
+      <c r="F20">
+        <v>171081</v>
+      </c>
+      <c r="G20">
+        <v>157865</v>
+      </c>
+      <c r="H20">
+        <v>146208</v>
+      </c>
+      <c r="I20">
+        <v>122790</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21">
+        <v>304873</v>
+      </c>
+      <c r="C21">
+        <v>239127</v>
+      </c>
+      <c r="D21">
+        <v>203213</v>
+      </c>
+      <c r="E21">
+        <v>167272</v>
+      </c>
+      <c r="F21">
+        <v>166507</v>
+      </c>
+      <c r="G21">
+        <v>146373</v>
+      </c>
+      <c r="H21">
+        <v>118485</v>
+      </c>
+      <c r="I21">
+        <v>88483</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22">
+        <v>301301</v>
+      </c>
+      <c r="C22">
+        <v>233512</v>
+      </c>
+      <c r="D22">
+        <v>206639</v>
+      </c>
+      <c r="E22">
+        <v>182941</v>
+      </c>
+      <c r="F22">
+        <v>162833</v>
+      </c>
+      <c r="G22">
+        <v>143121</v>
+      </c>
+      <c r="H22">
+        <v>130583</v>
+      </c>
+      <c r="I22">
+        <v>97903</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23">
+        <v>292616</v>
+      </c>
+      <c r="C23">
+        <v>242765</v>
+      </c>
+      <c r="D23">
+        <v>214805</v>
+      </c>
+      <c r="E23">
+        <v>190473</v>
+      </c>
+      <c r="F23">
+        <v>173926</v>
+      </c>
+      <c r="G23">
+        <v>152373</v>
+      </c>
+      <c r="H23">
+        <v>126136</v>
+      </c>
+      <c r="I23">
+        <v>50878</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24">
+        <v>305466</v>
+      </c>
+      <c r="C24">
+        <v>254253</v>
+      </c>
+      <c r="D24">
+        <v>224918</v>
+      </c>
+      <c r="E24">
+        <v>205749</v>
+      </c>
+      <c r="F24">
+        <v>178794</v>
+      </c>
+      <c r="G24">
+        <v>157212</v>
+      </c>
+      <c r="H24">
+        <v>125493</v>
+      </c>
+      <c r="I24">
+        <v>55274</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25">
+        <v>300923</v>
+      </c>
+      <c r="C25">
+        <v>252800</v>
+      </c>
+      <c r="D25">
+        <v>236576</v>
+      </c>
+      <c r="E25">
+        <v>207104</v>
+      </c>
+      <c r="F25">
+        <v>184068</v>
+      </c>
+      <c r="G25">
+        <v>153253</v>
+      </c>
+      <c r="H25">
+        <v>116613</v>
+      </c>
+      <c r="I25">
+        <v>17401</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29">
+        <v>100257</v>
+      </c>
+      <c r="C29">
+        <v>100616</v>
+      </c>
+      <c r="D29">
+        <v>99852</v>
+      </c>
+      <c r="E29">
+        <v>100337</v>
+      </c>
+      <c r="F29">
+        <v>99403</v>
+      </c>
+      <c r="G29">
+        <v>99917</v>
+      </c>
+      <c r="H29">
+        <v>101328</v>
+      </c>
+      <c r="I29">
+        <v>100075</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30">
+        <v>144247</v>
+      </c>
+      <c r="C30">
+        <v>146277</v>
+      </c>
+      <c r="D30">
+        <v>135841</v>
+      </c>
+      <c r="E30">
+        <v>145083</v>
+      </c>
+      <c r="F30">
+        <v>145325</v>
+      </c>
+      <c r="G30">
+        <v>146030</v>
+      </c>
+      <c r="H30">
+        <v>145132</v>
+      </c>
+      <c r="I30">
+        <v>144233</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31">
+        <v>120904</v>
+      </c>
+      <c r="C31">
+        <v>119636</v>
+      </c>
+      <c r="D31">
+        <v>118899</v>
+      </c>
+      <c r="E31">
+        <v>119855</v>
+      </c>
+      <c r="F31">
+        <v>121251</v>
+      </c>
+      <c r="G31">
+        <v>125214</v>
+      </c>
+      <c r="H31">
+        <v>124324</v>
+      </c>
+      <c r="I31">
+        <v>118640</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32">
+        <v>103889</v>
+      </c>
+      <c r="C32">
+        <v>102706</v>
+      </c>
+      <c r="D32">
+        <v>102156</v>
+      </c>
+      <c r="E32">
+        <v>103660</v>
+      </c>
+      <c r="F32">
+        <v>103639</v>
+      </c>
+      <c r="G32">
+        <v>103073</v>
+      </c>
+      <c r="H32">
+        <v>101972</v>
+      </c>
+      <c r="I32">
+        <v>104215</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33">
+        <v>100436</v>
+      </c>
+      <c r="C33">
+        <v>100665</v>
+      </c>
+      <c r="D33">
+        <v>100412</v>
+      </c>
+      <c r="E33">
+        <v>100319</v>
+      </c>
+      <c r="F33">
+        <v>101060</v>
+      </c>
+      <c r="G33">
+        <v>100765</v>
+      </c>
+      <c r="H33">
+        <v>99934</v>
+      </c>
+      <c r="I33">
+        <v>100448</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34">
+        <v>98361</v>
+      </c>
+      <c r="C34">
+        <v>97918</v>
+      </c>
+      <c r="D34">
+        <v>99335</v>
+      </c>
+      <c r="E34">
+        <v>98469</v>
+      </c>
+      <c r="F34">
+        <v>97336</v>
+      </c>
+      <c r="G34">
+        <v>97588</v>
+      </c>
+      <c r="H34">
+        <v>97225</v>
+      </c>
+      <c r="I34">
+        <v>98563</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35">
+        <v>98409</v>
+      </c>
+      <c r="C35">
+        <v>97741</v>
+      </c>
+      <c r="D35">
+        <v>96896</v>
+      </c>
+      <c r="E35">
+        <v>98385</v>
+      </c>
+      <c r="F35">
+        <v>97660</v>
+      </c>
+      <c r="G35">
+        <v>97647</v>
+      </c>
+      <c r="H35">
+        <v>97232</v>
+      </c>
+      <c r="I35">
+        <v>93116</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36">
+        <v>93040</v>
+      </c>
+      <c r="C36">
+        <v>93905</v>
+      </c>
+      <c r="D36">
+        <v>98392</v>
+      </c>
+      <c r="E36">
+        <v>99810</v>
+      </c>
+      <c r="F36">
+        <v>101376</v>
+      </c>
+      <c r="G36">
+        <v>100005</v>
+      </c>
+      <c r="H36">
+        <v>100455</v>
+      </c>
+      <c r="I36">
+        <v>100860</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" t="s">
+        <v>11</v>
+      </c>
+      <c r="H39" t="s">
+        <v>12</v>
+      </c>
+      <c r="I39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40">
+        <v>10569</v>
+      </c>
+      <c r="C40">
+        <v>5298</v>
+      </c>
+      <c r="D40">
+        <v>3532</v>
+      </c>
+      <c r="E40">
+        <v>2563</v>
+      </c>
+      <c r="F40">
+        <v>2077</v>
+      </c>
+      <c r="G40">
+        <v>1785</v>
+      </c>
+      <c r="H40">
+        <v>1464</v>
+      </c>
+      <c r="I40">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41">
+        <v>13909</v>
+      </c>
+      <c r="C41">
+        <v>6725</v>
+      </c>
+      <c r="D41">
+        <v>4582</v>
+      </c>
+      <c r="E41">
+        <v>3353</v>
+      </c>
+      <c r="F41">
+        <v>2688</v>
+      </c>
+      <c r="G41">
+        <v>2298</v>
+      </c>
+      <c r="H41">
+        <v>1993</v>
+      </c>
+      <c r="I41">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42">
+        <v>15923</v>
+      </c>
+      <c r="C42">
+        <v>7750</v>
+      </c>
+      <c r="D42">
+        <v>5116</v>
+      </c>
+      <c r="E42">
+        <v>3779</v>
+      </c>
+      <c r="F42">
+        <v>3166</v>
+      </c>
+      <c r="G42">
+        <v>2583</v>
+      </c>
+      <c r="H42">
+        <v>2202</v>
+      </c>
+      <c r="I42">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43">
+        <v>16912</v>
+      </c>
+      <c r="C43">
+        <v>8265</v>
+      </c>
+      <c r="D43">
+        <v>5479</v>
+      </c>
+      <c r="E43">
+        <v>4051</v>
+      </c>
+      <c r="F43">
+        <v>3217</v>
+      </c>
+      <c r="G43">
+        <v>2683</v>
+      </c>
+      <c r="H43">
+        <v>2322</v>
+      </c>
+      <c r="I43">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
+        <v>18</v>
+      </c>
+      <c r="B44">
+        <v>17952</v>
+      </c>
+      <c r="C44">
+        <v>8497</v>
+      </c>
+      <c r="D44">
+        <v>5549</v>
+      </c>
+      <c r="E44">
+        <v>4114</v>
+      </c>
+      <c r="F44">
+        <v>3270</v>
+      </c>
+      <c r="G44">
+        <v>2656</v>
+      </c>
+      <c r="H44">
+        <v>2371</v>
+      </c>
+      <c r="I44">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45">
+        <v>17528</v>
+      </c>
+      <c r="C45">
+        <v>8519</v>
+      </c>
+      <c r="D45">
+        <v>5598</v>
+      </c>
+      <c r="E45">
+        <v>4173</v>
+      </c>
+      <c r="F45">
+        <v>3320</v>
+      </c>
+      <c r="G45">
+        <v>2699</v>
+      </c>
+      <c r="H45">
+        <v>2317</v>
+      </c>
+      <c r="I45">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46">
+        <v>17740</v>
+      </c>
+      <c r="C46">
+        <v>8336</v>
+      </c>
+      <c r="D46">
+        <v>5445</v>
+      </c>
+      <c r="E46">
+        <v>4168</v>
+      </c>
+      <c r="F46">
+        <v>3307</v>
+      </c>
+      <c r="G46">
+        <v>2725</v>
+      </c>
+      <c r="H46">
+        <v>2328</v>
+      </c>
+      <c r="I46">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" t="s">
+        <v>21</v>
+      </c>
+      <c r="B47">
+        <v>17553</v>
+      </c>
+      <c r="C47">
+        <v>8430</v>
+      </c>
+      <c r="D47">
+        <v>5470</v>
+      </c>
+      <c r="E47">
+        <v>3983</v>
+      </c>
+      <c r="F47">
+        <v>3254</v>
+      </c>
+      <c r="G47">
+        <v>2685</v>
+      </c>
+      <c r="H47">
+        <v>2348</v>
+      </c>
+      <c r="I47">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="B50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" t="s">
+        <v>11</v>
+      </c>
+      <c r="H50" t="s">
+        <v>12</v>
+      </c>
+      <c r="I50" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51">
+        <v>1652489</v>
+      </c>
+      <c r="C51">
+        <v>839233</v>
+      </c>
+      <c r="D51">
+        <v>559744</v>
+      </c>
+      <c r="E51">
+        <v>420047</v>
+      </c>
+      <c r="F51">
+        <v>333526</v>
+      </c>
+      <c r="G51">
+        <v>280026</v>
+      </c>
+      <c r="H51">
+        <v>240205</v>
+      </c>
+      <c r="I51">
+        <v>207055</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52">
+        <v>2309579</v>
+      </c>
+      <c r="C52">
+        <v>1167862</v>
+      </c>
+      <c r="D52">
+        <v>721581</v>
+      </c>
+      <c r="E52">
+        <v>513360</v>
+      </c>
+      <c r="F52">
+        <v>407782</v>
+      </c>
+      <c r="G52">
+        <v>321057</v>
+      </c>
+      <c r="H52">
+        <v>279637</v>
+      </c>
+      <c r="I52">
+        <v>233261</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" t="s">
+        <v>16</v>
+      </c>
+      <c r="B53">
+        <v>2775624</v>
+      </c>
+      <c r="C53">
+        <v>1251921</v>
+      </c>
+      <c r="D53">
+        <v>752042</v>
+      </c>
+      <c r="E53">
+        <v>516720</v>
+      </c>
+      <c r="F53">
+        <v>402554</v>
+      </c>
+      <c r="G53">
+        <v>319156</v>
+      </c>
+      <c r="H53">
+        <v>270993</v>
+      </c>
+      <c r="I53">
+        <v>232954</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B54">
+        <v>2771201</v>
+      </c>
+      <c r="C54">
+        <v>1148209</v>
+      </c>
+      <c r="D54">
+        <v>686888</v>
+      </c>
+      <c r="E54">
+        <v>469088</v>
+      </c>
+      <c r="F54">
+        <v>357823</v>
+      </c>
+      <c r="G54">
+        <v>287425</v>
+      </c>
+      <c r="H54">
+        <v>240052</v>
+      </c>
+      <c r="I54">
+        <v>205451</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" t="s">
+        <v>18</v>
+      </c>
+      <c r="B55">
+        <v>2491567</v>
+      </c>
+      <c r="C55">
+        <v>1060289</v>
+      </c>
+      <c r="D55">
+        <v>628797</v>
+      </c>
+      <c r="E55">
+        <v>438370</v>
+      </c>
+      <c r="F55">
+        <v>333565</v>
+      </c>
+      <c r="G55">
+        <v>270653</v>
+      </c>
+      <c r="H55">
+        <v>225440</v>
+      </c>
+      <c r="I55">
+        <v>195757</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" t="s">
+        <v>19</v>
+      </c>
+      <c r="B56">
+        <v>2365795</v>
+      </c>
+      <c r="C56">
+        <v>1015411</v>
+      </c>
+      <c r="D56">
+        <v>606472</v>
+      </c>
+      <c r="E56">
+        <v>421088</v>
+      </c>
+      <c r="F56">
+        <v>322010</v>
+      </c>
+      <c r="G56">
+        <v>259073</v>
+      </c>
+      <c r="H56">
+        <v>218479</v>
+      </c>
+      <c r="I56">
+        <v>188789</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" t="s">
+        <v>20</v>
+      </c>
+      <c r="B57">
+        <v>2235956</v>
+      </c>
+      <c r="C57">
+        <v>944136</v>
+      </c>
+      <c r="D57">
+        <v>572130</v>
+      </c>
+      <c r="E57">
+        <v>407230</v>
+      </c>
+      <c r="F57">
+        <v>309427</v>
+      </c>
+      <c r="G57">
+        <v>249148</v>
+      </c>
+      <c r="H57">
+        <v>211644</v>
+      </c>
+      <c r="I57">
+        <v>181330</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" t="s">
+        <v>21</v>
+      </c>
+      <c r="B58">
+        <v>2128187</v>
+      </c>
+      <c r="C58">
+        <v>928766</v>
+      </c>
+      <c r="D58">
+        <v>573866</v>
+      </c>
+      <c r="E58">
+        <v>390909</v>
+      </c>
+      <c r="F58">
+        <v>298870</v>
+      </c>
+      <c r="G58">
+        <v>242722</v>
+      </c>
+      <c r="H58">
+        <v>203058</v>
+      </c>
+      <c r="I58">
+        <v>176173</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="B61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" t="s">
+        <v>10</v>
+      </c>
+      <c r="G61" t="s">
+        <v>11</v>
+      </c>
+      <c r="H61" t="s">
+        <v>12</v>
+      </c>
+      <c r="I61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" t="s">
+        <v>14</v>
+      </c>
+      <c r="B62">
+        <v>102689</v>
+      </c>
+      <c r="C62">
+        <v>102058</v>
+      </c>
+      <c r="D62">
+        <v>102469</v>
+      </c>
+      <c r="E62">
+        <v>102780</v>
+      </c>
+      <c r="F62">
+        <v>102243</v>
+      </c>
+      <c r="G62">
+        <v>103084</v>
+      </c>
+      <c r="H62">
+        <v>102847</v>
+      </c>
+      <c r="I62">
+        <v>102318</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" t="s">
+        <v>15</v>
+      </c>
+      <c r="B63">
+        <v>152952</v>
+      </c>
+      <c r="C63">
+        <v>152873</v>
+      </c>
+      <c r="D63">
+        <v>147279</v>
+      </c>
+      <c r="E63">
+        <v>151293</v>
+      </c>
+      <c r="F63">
+        <v>153827</v>
+      </c>
+      <c r="G63">
+        <v>150969</v>
+      </c>
+      <c r="H63">
+        <v>151705</v>
+      </c>
+      <c r="I63">
+        <v>151576</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" t="s">
+        <v>16</v>
+      </c>
+      <c r="B64">
+        <v>168777</v>
+      </c>
+      <c r="C64">
+        <v>167407</v>
+      </c>
+      <c r="D64">
+        <v>171505</v>
+      </c>
+      <c r="E64">
+        <v>167185</v>
+      </c>
+      <c r="F64">
+        <v>171381</v>
+      </c>
+      <c r="G64">
+        <v>168573</v>
+      </c>
+      <c r="H64">
+        <v>171973</v>
+      </c>
+      <c r="I64">
+        <v>168548</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" t="s">
+        <v>17</v>
+      </c>
+      <c r="B65">
+        <v>156952</v>
+      </c>
+      <c r="C65">
+        <v>147485</v>
+      </c>
+      <c r="D65">
+        <v>146603</v>
+      </c>
+      <c r="E65">
+        <v>159931</v>
+      </c>
+      <c r="F65">
+        <v>141720</v>
+      </c>
+      <c r="G65">
+        <v>152167</v>
+      </c>
+      <c r="H65">
+        <v>157481</v>
+      </c>
+      <c r="I65">
+        <v>137524</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" t="s">
+        <v>18</v>
+      </c>
+      <c r="B66">
+        <v>125054</v>
+      </c>
+      <c r="C66">
+        <v>126387</v>
+      </c>
+      <c r="D66">
+        <v>119360</v>
+      </c>
+      <c r="E66">
+        <v>118354</v>
+      </c>
+      <c r="F66">
+        <v>121201</v>
+      </c>
+      <c r="G66">
+        <v>116325</v>
+      </c>
+      <c r="H66">
+        <v>121669</v>
+      </c>
+      <c r="I66">
+        <v>126821</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" t="s">
+        <v>19</v>
+      </c>
+      <c r="B67">
+        <v>122141</v>
+      </c>
+      <c r="C67">
+        <v>120580</v>
+      </c>
+      <c r="D67">
+        <v>113385</v>
+      </c>
+      <c r="E67">
+        <v>117478</v>
+      </c>
+      <c r="F67">
+        <v>112296</v>
+      </c>
+      <c r="G67">
+        <v>119314</v>
+      </c>
+      <c r="H67">
+        <v>119958</v>
+      </c>
+      <c r="I67">
+        <v>121799</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" t="s">
+        <v>20</v>
+      </c>
+      <c r="B68">
+        <v>118193</v>
+      </c>
+      <c r="C68">
+        <v>119784</v>
+      </c>
+      <c r="D68">
+        <v>118390</v>
+      </c>
+      <c r="E68">
+        <v>119927</v>
+      </c>
+      <c r="F68">
+        <v>118045</v>
+      </c>
+      <c r="G68">
+        <v>120217</v>
+      </c>
+      <c r="H68">
+        <v>117929</v>
+      </c>
+      <c r="I68">
+        <v>119648</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" t="s">
+        <v>21</v>
+      </c>
+      <c r="B69">
+        <v>115790</v>
+      </c>
+      <c r="C69">
+        <v>117890</v>
+      </c>
+      <c r="D69">
+        <v>112565</v>
+      </c>
+      <c r="E69">
+        <v>115808</v>
+      </c>
+      <c r="F69">
+        <v>113824</v>
+      </c>
+      <c r="G69">
+        <v>117703</v>
+      </c>
+      <c r="H69">
+        <v>115257</v>
+      </c>
+      <c r="I69">
+        <v>119329</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="K4:S4"/>
+    <mergeCell ref="U4:AC4"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B18:I25">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00FF00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29:I36">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00FF00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:I14">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00FF00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:I36">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00FF00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B40:I69">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B40:I47">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B51:I58">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B62:I69">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L7:S14">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L18:S25">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L29:S36">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L40:S47">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L51:S58">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L62:S69">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V62:AC69">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V51:AC58">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V40:AC47">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V29:AC36">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V18:AC25">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V7:AC14">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9345,18 +14935,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>

--- a/graphs/benchmark_locking 4x i7-3770K @ 3.50Ghz Win10 20.075Gb bandwidth.xlsx
+++ b/graphs/benchmark_locking 4x i7-3770K @ 3.50Ghz Win10 20.075Gb bandwidth.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="16275" windowHeight="7755"/>
+    <workbookView xWindow="255" yWindow="60" windowWidth="28320" windowHeight="17280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="34">
   <si>
     <t>lock_files</t>
   </si>
@@ -115,6 +115,12 @@
   </si>
   <si>
     <t>FAT32</t>
+  </si>
+  <si>
+    <t>memory_map</t>
+  </si>
+  <si>
+    <t>!memory_map</t>
   </si>
 </sst>
 </file>
@@ -237,7 +243,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -254,7 +259,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$43:$I$43</c:f>
+              <c:f>Sheet2!$B$54:$I$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -287,11 +292,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="221510272"/>
-        <c:axId val="221590272"/>
+        <c:axId val="132122496"/>
+        <c:axId val="132124672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="221510272"/>
+        <c:axId val="132122496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -312,17 +317,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="221590272"/>
+        <c:crossAx val="132124672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="221590272"/>
+        <c:axId val="132124672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -344,18 +348,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="221510272"/>
+        <c:crossAx val="132122496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -371,7 +373,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -391,19 +393,15 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-IE"/>
-              <a:t>Scaling</a:t>
-            </a:r>
-            <a:r>
               <a:rPr lang="en-IE" baseline="0"/>
-              <a:t> of byte range locks to concurrency on NTFS</a:t>
+              <a:t>How many uncontended entities equals single contended lock</a:t>
             </a:r>
             <a:br>
               <a:rPr lang="en-IE" baseline="0"/>
             </a:br>
             <a:r>
               <a:rPr lang="en-IE" baseline="0"/>
-              <a:t>(2 core 4 thread CPU)</a:t>
+              <a:t>(4 core 8 thread CPU)</a:t>
             </a:r>
             <a:endParaRPr lang="en-IE"/>
           </a:p>
@@ -480,7 +478,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$F$51:$F$58</c:f>
+              <c:f>Sheet2!$F$62:$F$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -513,11 +511,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="222339072"/>
-        <c:axId val="222340992"/>
+        <c:axId val="134492544"/>
+        <c:axId val="134494464"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="222339072"/>
+        <c:axId val="134492544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -541,14 +539,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="222340992"/>
+        <c:crossAx val="134494464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="222340992"/>
+        <c:axId val="134494464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -579,7 +577,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="222339072"/>
+        <c:crossAx val="134492544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -602,13 +600,247 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-GB"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IE"/>
+              <a:t>Scaling</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IE" baseline="0"/>
+              <a:t> of memory map locks to concurrency on NTFS</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="en-IE" baseline="0"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="en-IE" baseline="0"/>
+              <a:t>(4 core 8 thread CPU)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Uncontended</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="50800">
+              <a:solidFill>
+                <a:srgbClr val="00FF00"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$84:$B$91</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>14765559</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29636123</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41507970</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>52736904</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>59443895</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>66430795</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>72518727</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75969911</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Contended</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="50800">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$40:$B$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>14798662</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11741426</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10783220</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9360585</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8712850</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8154316</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7856455</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6944774</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="135454720"/>
+        <c:axId val="139734400"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="135454720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IE"/>
+                  <a:t>Concurrency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="139734400"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="139734400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IE"/>
+                  <a:t>Max</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-IE" baseline="0"/>
+                  <a:t> ops/sec</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-IE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="135454720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1600"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-GB"/>
   <c:chart>
@@ -633,7 +865,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1310,24 +1541,24 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="92315648"/>
-        <c:axId val="92317184"/>
+        <c:axId val="134820608"/>
+        <c:axId val="134822144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="92315648"/>
+        <c:axId val="134820608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92317184"/>
+        <c:crossAx val="134822144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92317184"/>
+        <c:axId val="134822144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="18000"/>
@@ -1350,783 +1581,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92315648"/>
+        <c:crossAx val="134820608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-GB"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-IE"/>
-              <a:t>Byte</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-IE" baseline="0"/>
-              <a:t> Ranges Contended on Machine B</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-IE"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$18</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1 waiters</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$6:$I$6</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1 entities</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2 entities</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3 entities</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4 entities</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5 entities</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6 entities</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7 entities</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8 entities</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$18:$I$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1534082</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>787331</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>542532</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>399127</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>324564</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>266931</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>229058</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>204436</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$19</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2 waiters</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$6:$I$6</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1 entities</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2 entities</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3 entities</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4 entities</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5 entities</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6 entities</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7 entities</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8 entities</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$19:$I$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>387040</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>294693</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>263348</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>230711</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>205786</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>188790</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>165491</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>157886</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$20</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>3 waiters</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$6:$I$6</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1 entities</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2 entities</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3 entities</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4 entities</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5 entities</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6 entities</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7 entities</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8 entities</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$20:$I$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>327001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>249121</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>247871</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>216968</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>184903</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>180295</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>155586</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>146491</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>4 waiters</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$6:$I$6</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1 entities</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2 entities</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3 entities</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4 entities</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5 entities</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6 entities</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7 entities</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8 entities</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$21:$I$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>310154</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>256639</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>228510</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>206943</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>189109</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>167184</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>154749</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>138646</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>5 waiters</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$6:$I$6</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1 entities</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2 entities</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3 entities</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4 entities</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5 entities</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6 entities</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7 entities</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8 entities</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$22:$I$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>307296</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>253245</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>226394</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>203765</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>185070</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>160360</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>141883</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>117592</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$23</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>6 waiters</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$6:$I$6</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1 entities</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2 entities</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3 entities</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4 entities</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5 entities</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6 entities</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7 entities</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8 entities</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$23:$I$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>308249</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>253447</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>225273</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>202758</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>182826</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>156832</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>129397</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>19113</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$24</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>7 waiters</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$6:$I$6</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1 entities</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2 entities</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3 entities</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4 entities</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5 entities</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6 entities</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7 entities</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8 entities</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$24:$I$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>304163</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>247262</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>223119</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>202145</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>177347</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>144586</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>42121</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3950</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$25</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>8 waiters</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$6:$I$6</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1 entities</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2 entities</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3 entities</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4 entities</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5 entities</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6 entities</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7 entities</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8 entities</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$25:$I$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>301214</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>246611</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>222209</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>201815</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>169004</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>127047</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12181</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1775</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="92236800"/>
-        <c:axId val="92242688"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="92236800"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92242688"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="92242688"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="3000000"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-IE"/>
-                  <a:t>Ops/sec</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92236800"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -2152,14 +1616,17 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-IE"/>
+              <a:t>Byte</a:t>
+            </a:r>
+            <a:r>
               <a:rPr lang="en-IE" baseline="0"/>
-              <a:t>Atomic Append Contended on Machine B</a:t>
+              <a:t> Ranges Contended on Machine B</a:t>
             </a:r>
             <a:endParaRPr lang="en-IE"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -2170,7 +1637,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$29</c:f>
+              <c:f>Sheet1!$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2216,33 +1683,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$29:$I$29</c:f>
+              <c:f>Sheet1!$B$18:$I$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>97294</c:v>
+                  <c:v>1534082</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>96793</c:v>
+                  <c:v>787331</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>97672</c:v>
+                  <c:v>542532</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>96169</c:v>
+                  <c:v>399127</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>96901</c:v>
+                  <c:v>324564</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>96947</c:v>
+                  <c:v>266931</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>97427</c:v>
+                  <c:v>229058</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>96781</c:v>
+                  <c:v>204436</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2254,7 +1721,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$30</c:f>
+              <c:f>Sheet1!$A$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2300,33 +1767,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$30:$I$30</c:f>
+              <c:f>Sheet1!$B$19:$I$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>143912</c:v>
+                  <c:v>387040</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>143995</c:v>
+                  <c:v>294693</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>147078</c:v>
+                  <c:v>263348</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>142680</c:v>
+                  <c:v>230711</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>144289</c:v>
+                  <c:v>205786</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>142943</c:v>
+                  <c:v>188790</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>145283</c:v>
+                  <c:v>165491</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>146256</c:v>
+                  <c:v>157886</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2338,7 +1805,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$31</c:f>
+              <c:f>Sheet1!$A$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2384,33 +1851,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$31:$I$31</c:f>
+              <c:f>Sheet1!$B$20:$I$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>161849</c:v>
+                  <c:v>327001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>157805</c:v>
+                  <c:v>249121</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>159122</c:v>
+                  <c:v>247871</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>160212</c:v>
+                  <c:v>216968</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>160587</c:v>
+                  <c:v>184903</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>160821</c:v>
+                  <c:v>180295</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>158584</c:v>
+                  <c:v>155586</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>155920</c:v>
+                  <c:v>146491</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2422,7 +1889,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$32</c:f>
+              <c:f>Sheet1!$A$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2468,33 +1935,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$32:$I$32</c:f>
+              <c:f>Sheet1!$B$21:$I$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>127725</c:v>
+                  <c:v>310154</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>121695</c:v>
+                  <c:v>256639</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>113132</c:v>
+                  <c:v>228510</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>121307</c:v>
+                  <c:v>206943</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>127686</c:v>
+                  <c:v>189109</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>121741</c:v>
+                  <c:v>167184</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>115868</c:v>
+                  <c:v>154749</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>121448</c:v>
+                  <c:v>138646</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2506,7 +1973,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$33</c:f>
+              <c:f>Sheet1!$A$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2552,33 +2019,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$33:$I$33</c:f>
+              <c:f>Sheet1!$B$22:$I$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>116992</c:v>
+                  <c:v>307296</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>113779</c:v>
+                  <c:v>253245</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>114489</c:v>
+                  <c:v>226394</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>115311</c:v>
+                  <c:v>203765</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>116094</c:v>
+                  <c:v>185070</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>111728</c:v>
+                  <c:v>160360</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>111443</c:v>
+                  <c:v>141883</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>108833</c:v>
+                  <c:v>117592</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2589,7 +2056,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$34</c:f>
+              <c:f>Sheet1!$A$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2635,33 +2102,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$34:$I$34</c:f>
+              <c:f>Sheet1!$B$23:$I$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>110233</c:v>
+                  <c:v>308249</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>107279</c:v>
+                  <c:v>253447</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>109455</c:v>
+                  <c:v>225273</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>109452</c:v>
+                  <c:v>202758</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>110500</c:v>
+                  <c:v>182826</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>108298</c:v>
+                  <c:v>156832</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>109194</c:v>
+                  <c:v>129397</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>107502</c:v>
+                  <c:v>19113</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2672,7 +2139,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$35</c:f>
+              <c:f>Sheet1!$A$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2718,33 +2185,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$35:$I$35</c:f>
+              <c:f>Sheet1!$B$24:$I$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>110195</c:v>
+                  <c:v>304163</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>111519</c:v>
+                  <c:v>247262</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>111840</c:v>
+                  <c:v>223119</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>112288</c:v>
+                  <c:v>202145</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>111728</c:v>
+                  <c:v>177347</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>110074</c:v>
+                  <c:v>144586</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>108780</c:v>
+                  <c:v>42121</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>107922</c:v>
+                  <c:v>3950</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2756,7 +2223,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$36</c:f>
+              <c:f>Sheet1!$A$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2802,33 +2269,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$36:$I$36</c:f>
+              <c:f>Sheet1!$B$25:$I$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>111161</c:v>
+                  <c:v>301214</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>111393</c:v>
+                  <c:v>246611</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>110485</c:v>
+                  <c:v>222209</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>110911</c:v>
+                  <c:v>201815</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>111250</c:v>
+                  <c:v>169004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>111041</c:v>
+                  <c:v>127047</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>110422</c:v>
+                  <c:v>12181</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>111455</c:v>
+                  <c:v>1775</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2836,27 +2303,27 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="92375680"/>
-        <c:axId val="92393856"/>
+        <c:axId val="134885376"/>
+        <c:axId val="134886912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="92375680"/>
+        <c:axId val="134885376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92393856"/>
+        <c:crossAx val="134886912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92393856"/>
+        <c:axId val="134886912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="180000"/>
+          <c:max val="3000000"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
@@ -2876,18 +2343,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92375680"/>
+        <c:crossAx val="134885376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -2914,13 +2379,770 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-IE" baseline="0"/>
+              <a:t>Atomic Append Contended on Machine B</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1 waiters</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$6:$I$6</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1 entities</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 entities</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3 entities</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4 entities</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5 entities</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6 entities</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7 entities</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8 entities</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$29:$I$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>97294</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96793</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>97672</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>96169</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>96901</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96947</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>97427</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>96781</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2 waiters</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$6:$I$6</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1 entities</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 entities</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3 entities</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4 entities</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5 entities</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6 entities</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7 entities</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8 entities</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$30:$I$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>143912</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>143995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>147078</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>142680</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>144289</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>142943</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>145283</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>146256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3 waiters</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$6:$I$6</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1 entities</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 entities</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3 entities</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4 entities</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5 entities</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6 entities</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7 entities</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8 entities</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$31:$I$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>161849</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>157805</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>159122</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>160212</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>160587</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>160821</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158584</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>155920</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4 waiters</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$6:$I$6</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1 entities</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 entities</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3 entities</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4 entities</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5 entities</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6 entities</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7 entities</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8 entities</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$32:$I$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>127725</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>121695</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>113132</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>121307</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>127686</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>121741</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>115868</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>121448</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5 waiters</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$6:$I$6</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1 entities</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 entities</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3 entities</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4 entities</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5 entities</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6 entities</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7 entities</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8 entities</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$33:$I$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>116992</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>113779</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>114489</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>115311</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>116094</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>111728</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>111443</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>108833</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6 waiters</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$6:$I$6</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1 entities</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 entities</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3 entities</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4 entities</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5 entities</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6 entities</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7 entities</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8 entities</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$34:$I$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>110233</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>107279</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>109455</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>109452</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>110500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>108298</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>109194</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>107502</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7 waiters</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$6:$I$6</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1 entities</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 entities</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3 entities</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4 entities</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5 entities</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6 entities</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7 entities</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8 entities</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$35:$I$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>110195</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>111519</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>111840</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>112288</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>111728</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>110074</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>108780</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>107922</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8 waiters</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$6:$I$6</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1 entities</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 entities</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3 entities</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4 entities</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5 entities</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6 entities</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7 entities</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8 entities</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$36:$I$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>111161</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>111393</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>110485</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>110911</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>111250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>111041</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>110422</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>111455</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="134946176"/>
+        <c:axId val="134952064"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="134946176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="134952064"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="134952064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="180000"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IE"/>
+                  <a:t>Ops/sec</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="134946176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-GB"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IE" baseline="0"/>
               <a:t>2 waiters Contended on Machine B</a:t>
             </a:r>
             <a:endParaRPr lang="en-IE"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -3113,24 +3335,24 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="92435968"/>
-        <c:axId val="92437504"/>
+        <c:axId val="134977792"/>
+        <c:axId val="135012352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="92435968"/>
+        <c:axId val="134977792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92437504"/>
+        <c:crossAx val="135012352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92437504"/>
+        <c:axId val="135012352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2500000"/>
@@ -3153,30 +3375,28 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92435968"/>
+        <c:crossAx val="134977792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-GB"/>
   <c:chart>
@@ -3389,24 +3609,24 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="92456064"/>
-        <c:axId val="92457600"/>
+        <c:axId val="135026560"/>
+        <c:axId val="135028096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="92456064"/>
+        <c:axId val="135026560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92457600"/>
+        <c:crossAx val="135028096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92457600"/>
+        <c:axId val="135028096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2500000"/>
@@ -3432,7 +3652,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92456064"/>
+        <c:crossAx val="135026560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3444,13 +3664,13 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-GB"/>
   <c:chart>
@@ -3663,24 +3883,24 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="92516736"/>
-        <c:axId val="92518272"/>
+        <c:axId val="135144576"/>
+        <c:axId val="135146112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="92516736"/>
+        <c:axId val="135144576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92518272"/>
+        <c:crossAx val="135146112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92518272"/>
+        <c:axId val="135146112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2500000"/>
@@ -3706,7 +3926,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92516736"/>
+        <c:crossAx val="135144576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3718,13 +3938,13 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-GB"/>
   <c:chart>
@@ -3749,7 +3969,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -4426,24 +4645,24 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="92646400"/>
-        <c:axId val="92660480"/>
+        <c:axId val="135086080"/>
+        <c:axId val="135087616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="92646400"/>
+        <c:axId val="135086080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92660480"/>
+        <c:crossAx val="135087616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92660480"/>
+        <c:axId val="135087616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4465,782 +4684,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92646400"/>
+        <c:crossAx val="135086080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-GB"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-IE"/>
-              <a:t>Byte</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-IE" baseline="0"/>
-              <a:t> Ranges Uncontended on Machine B</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-IE"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$51</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1 waiters</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$6:$I$6</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1 entities</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2 entities</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3 entities</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4 entities</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5 entities</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6 entities</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7 entities</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8 entities</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$51:$I$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1580767</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>801787</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>536385</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>404047</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>323611</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>261697</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>229799</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>203863</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$52</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2 waiters</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$6:$I$6</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1 entities</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2 entities</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3 entities</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4 entities</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5 entities</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6 entities</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7 entities</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8 entities</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$52:$I$52</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>2210585</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1123352</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>690616</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>512940</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>404276</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>328307</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>279783</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>244569</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$53</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>3 waiters</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$6:$I$6</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1 entities</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2 entities</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3 entities</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4 entities</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5 entities</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6 entities</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7 entities</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8 entities</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$53:$I$53</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>2768284</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1278880</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>759522</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>523964</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>394855</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>314806</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>263564</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>227943</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$54</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>4 waiters</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$6:$I$6</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1 entities</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2 entities</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3 entities</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4 entities</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5 entities</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6 entities</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7 entities</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8 entities</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$54:$I$54</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>2384764</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1001586</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>607072</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>426620</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>326913</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>265875</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>221184</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>190402</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$55</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>5 waiters</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$6:$I$6</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1 entities</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2 entities</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3 entities</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4 entities</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5 entities</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6 entities</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7 entities</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8 entities</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$55:$I$55</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>2142762</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>936255</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>569267</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>392204</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>302693</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>246517</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>207136</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>179478</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$56</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>6 waiters</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$6:$I$6</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1 entities</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2 entities</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3 entities</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4 entities</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5 entities</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6 entities</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7 entities</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8 entities</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$56:$I$56</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1935686</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>859240</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>528796</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>371903</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>287552</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>232598</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>197020</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>169265</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$57</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>7 waiters</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$6:$I$6</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1 entities</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2 entities</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3 entities</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4 entities</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5 entities</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6 entities</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7 entities</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8 entities</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$57:$I$57</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1789108</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>808820</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>493947</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>352146</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>272005</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>221464</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>186349</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>160697</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$58</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>8 waiters</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$6:$I$6</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1 entities</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2 entities</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3 entities</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4 entities</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5 entities</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6 entities</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7 entities</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8 entities</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$58:$I$58</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1675135</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>751762</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>468787</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>334033</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>261776</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>211916</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>178607</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>154374</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="92576000"/>
-        <c:axId val="92598272"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="92576000"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92598272"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="92598272"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-IE"/>
-                  <a:t>Ops/sec</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92576000"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -5266,14 +4719,17 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-IE"/>
+              <a:t>Byte</a:t>
+            </a:r>
+            <a:r>
               <a:rPr lang="en-IE" baseline="0"/>
-              <a:t>Atomic Append Uncontended on Machine B</a:t>
+              <a:t> Ranges Uncontended on Machine B</a:t>
             </a:r>
             <a:endParaRPr lang="en-IE"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -5284,7 +4740,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$62</c:f>
+              <c:f>Sheet1!$A$51</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5330,33 +4786,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$62:$I$62</c:f>
+              <c:f>Sheet1!$B$51:$I$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>96259</c:v>
+                  <c:v>1580767</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>96245</c:v>
+                  <c:v>801787</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>96837</c:v>
+                  <c:v>536385</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>97279</c:v>
+                  <c:v>404047</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>96034</c:v>
+                  <c:v>323611</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>96355</c:v>
+                  <c:v>261697</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>96334</c:v>
+                  <c:v>229799</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>95588</c:v>
+                  <c:v>203863</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5368,7 +4824,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$63</c:f>
+              <c:f>Sheet1!$A$52</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5414,33 +4870,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$63:$I$63</c:f>
+              <c:f>Sheet1!$B$52:$I$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>148582</c:v>
+                  <c:v>2210585</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>146033</c:v>
+                  <c:v>1123352</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>148795</c:v>
+                  <c:v>690616</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>145835</c:v>
+                  <c:v>512940</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>147535</c:v>
+                  <c:v>404276</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>145948</c:v>
+                  <c:v>328307</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>148990</c:v>
+                  <c:v>279783</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>147037</c:v>
+                  <c:v>244569</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5452,7 +4908,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$64</c:f>
+              <c:f>Sheet1!$A$53</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5498,33 +4954,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$64:$I$64</c:f>
+              <c:f>Sheet1!$B$53:$I$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>166116</c:v>
+                  <c:v>2768284</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>166063</c:v>
+                  <c:v>1278880</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>166041</c:v>
+                  <c:v>759522</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>169558</c:v>
+                  <c:v>523964</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>166672</c:v>
+                  <c:v>394855</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>165923</c:v>
+                  <c:v>314806</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>168569</c:v>
+                  <c:v>263564</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>166727</c:v>
+                  <c:v>227943</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5536,7 +4992,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$65</c:f>
+              <c:f>Sheet1!$A$54</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5582,33 +5038,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$65:$I$65</c:f>
+              <c:f>Sheet1!$B$54:$I$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>144884</c:v>
+                  <c:v>2384764</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>160038</c:v>
+                  <c:v>1001586</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>145791</c:v>
+                  <c:v>607072</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>138641</c:v>
+                  <c:v>426620</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>150922</c:v>
+                  <c:v>326913</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>156347</c:v>
+                  <c:v>265875</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>149522</c:v>
+                  <c:v>221184</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>138977</c:v>
+                  <c:v>190402</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5620,7 +5076,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$66</c:f>
+              <c:f>Sheet1!$A$55</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5666,33 +5122,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$66:$I$66</c:f>
+              <c:f>Sheet1!$B$55:$I$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>119052</c:v>
+                  <c:v>2142762</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>123443</c:v>
+                  <c:v>936255</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>124517</c:v>
+                  <c:v>569267</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>123568</c:v>
+                  <c:v>392204</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>120793</c:v>
+                  <c:v>302693</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>118922</c:v>
+                  <c:v>246517</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>115066</c:v>
+                  <c:v>207136</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>115806</c:v>
+                  <c:v>179478</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5703,7 +5159,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$67</c:f>
+              <c:f>Sheet1!$A$56</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5749,33 +5205,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$67:$I$67</c:f>
+              <c:f>Sheet1!$B$56:$I$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>113597</c:v>
+                  <c:v>1935686</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>115997</c:v>
+                  <c:v>859240</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>115830</c:v>
+                  <c:v>528796</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>114919</c:v>
+                  <c:v>371903</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>113623</c:v>
+                  <c:v>287552</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>114016</c:v>
+                  <c:v>232598</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>113875</c:v>
+                  <c:v>197020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>114883</c:v>
+                  <c:v>169265</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5786,7 +5242,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$68</c:f>
+              <c:f>Sheet1!$A$57</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5832,33 +5288,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$68:$I$68</c:f>
+              <c:f>Sheet1!$B$57:$I$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>115689</c:v>
+                  <c:v>1789108</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>115690</c:v>
+                  <c:v>808820</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>113760</c:v>
+                  <c:v>493947</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>117689</c:v>
+                  <c:v>352146</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>117272</c:v>
+                  <c:v>272005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>117827</c:v>
+                  <c:v>221464</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>117040</c:v>
+                  <c:v>186349</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>116582</c:v>
+                  <c:v>160697</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5870,7 +5326,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$69</c:f>
+              <c:f>Sheet1!$A$58</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5916,33 +5372,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$69:$I$69</c:f>
+              <c:f>Sheet1!$B$58:$I$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>114281</c:v>
+                  <c:v>1675135</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>115311</c:v>
+                  <c:v>751762</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>114577</c:v>
+                  <c:v>468787</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>113276</c:v>
+                  <c:v>334033</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>114858</c:v>
+                  <c:v>261776</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>114976</c:v>
+                  <c:v>211916</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>113605</c:v>
+                  <c:v>178607</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>115101</c:v>
+                  <c:v>154374</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5950,24 +5406,24 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="92788224"/>
-        <c:axId val="92789760"/>
+        <c:axId val="135207936"/>
+        <c:axId val="135222016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="92788224"/>
+        <c:axId val="135207936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92789760"/>
+        <c:crossAx val="135222016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92789760"/>
+        <c:axId val="135222016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5989,18 +5445,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92788224"/>
+        <c:crossAx val="135207936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -6040,7 +5494,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -6219,11 +5672,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="221633536"/>
-        <c:axId val="221648000"/>
+        <c:axId val="132180224"/>
+        <c:axId val="134156672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="221633536"/>
+        <c:axId val="132180224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6244,17 +5697,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="221648000"/>
+        <c:crossAx val="134156672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="221648000"/>
+        <c:axId val="134156672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6276,18 +5728,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="221633536"/>
+        <c:crossAx val="132180224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -6303,7 +5753,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6324,130 +5774,27 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-IE" baseline="0"/>
-              <a:t>2 waiters Uncontended on Machine B</a:t>
+              <a:t>Atomic Append Uncontended on Machine B</a:t>
             </a:r>
             <a:endParaRPr lang="en-IE"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$5</c:f>
+              <c:f>Sheet1!$A$62</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>lock_files</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$41:$I$41</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>13943</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6371</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4297</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3231</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2610</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2170</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1895</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1694</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$16</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>byte_ranges</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$52:$I$52</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>2210585</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1123352</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>690616</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>512940</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>404276</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>328307</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>279783</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>244569</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$27</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>atomic_append</c:v>
+                  <c:v>1 waiters</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6489,6 +5836,90 @@
           </c:cat>
           <c:val>
             <c:numRef>
+              <c:f>Sheet1!$B$62:$I$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>96259</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96245</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>96837</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97279</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>96034</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96355</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>96334</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>95588</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$63</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2 waiters</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$6:$I$6</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1 entities</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 entities</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3 entities</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4 entities</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5 entities</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6 entities</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7 entities</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8 entities</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
               <c:f>Sheet1!$B$63:$I$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -6516,6 +5947,508 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>147037</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$64</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3 waiters</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$6:$I$6</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1 entities</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 entities</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3 entities</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4 entities</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5 entities</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6 entities</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7 entities</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8 entities</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$64:$I$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>166116</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>166063</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>166041</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>169558</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>166672</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>165923</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>168569</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>166727</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$65</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4 waiters</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$6:$I$6</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1 entities</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 entities</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3 entities</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4 entities</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5 entities</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6 entities</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7 entities</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8 entities</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$65:$I$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>144884</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>160038</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>145791</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>138641</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150922</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>156347</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>149522</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>138977</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5 waiters</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$6:$I$6</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1 entities</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 entities</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3 entities</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4 entities</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5 entities</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6 entities</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7 entities</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8 entities</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$66:$I$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>119052</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>123443</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>124517</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>123568</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120793</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>118922</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>115066</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>115806</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$67</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6 waiters</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$6:$I$6</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1 entities</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 entities</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3 entities</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4 entities</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5 entities</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6 entities</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7 entities</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8 entities</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$67:$I$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>113597</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>115997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>115830</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>114919</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>113623</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>114016</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>113875</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>114883</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$68</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7 waiters</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$6:$I$6</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1 entities</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 entities</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3 entities</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4 entities</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5 entities</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6 entities</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7 entities</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8 entities</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$68:$I$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>115689</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>115690</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>113760</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>117689</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>117272</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>117827</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>117040</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>116582</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$69</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8 waiters</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$6:$I$6</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1 entities</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 entities</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3 entities</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4 entities</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5 entities</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6 entities</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7 entities</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8 entities</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$69:$I$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>114281</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>115311</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>114577</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>113276</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>114858</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>114976</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>113605</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>115101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6523,24 +6456,24 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="92828416"/>
-        <c:axId val="92829952"/>
+        <c:axId val="135272704"/>
+        <c:axId val="135278592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="92828416"/>
+        <c:axId val="135272704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92829952"/>
+        <c:crossAx val="135278592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92829952"/>
+        <c:axId val="135278592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6562,18 +6495,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92828416"/>
+        <c:crossAx val="135272704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -6586,6 +6517,279 @@
 </file>
 
 <file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-GB"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IE" baseline="0"/>
+              <a:t>2 waiters Uncontended on Machine B</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>lock_files</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$41:$I$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>13943</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6371</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4297</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3231</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2610</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2170</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1895</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1694</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>byte_ranges</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$52:$I$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2210585</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1123352</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>690616</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512940</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>404276</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>328307</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>279783</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>244569</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>atomic_append</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$6:$I$6</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1 entities</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 entities</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3 entities</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4 entities</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5 entities</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6 entities</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7 entities</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8 entities</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$63:$I$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>148582</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>146033</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>148795</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>145835</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>147535</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>145948</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>148990</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>147037</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="135304704"/>
+        <c:axId val="135306240"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="135304704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="135306240"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="135306240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IE"/>
+                  <a:t>Ops/sec</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="135304704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-GB"/>
   <c:chart>
@@ -6798,24 +7002,24 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="92868608"/>
-        <c:axId val="92870144"/>
+        <c:axId val="135357184"/>
+        <c:axId val="135358720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="92868608"/>
+        <c:axId val="135357184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92870144"/>
+        <c:crossAx val="135358720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92870144"/>
+        <c:axId val="135358720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2500000"/>
@@ -6841,7 +7045,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92868608"/>
+        <c:crossAx val="135357184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6853,13 +7057,13 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-GB"/>
   <c:chart>
@@ -7072,24 +7276,24 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="92900352"/>
-        <c:axId val="92910336"/>
+        <c:axId val="135405568"/>
+        <c:axId val="135407104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="92900352"/>
+        <c:axId val="135405568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92910336"/>
+        <c:crossAx val="135407104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92910336"/>
+        <c:axId val="135407104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2500000"/>
@@ -7115,7 +7319,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92900352"/>
+        <c:crossAx val="135405568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7127,7 +7331,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7161,7 +7365,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -7340,11 +7543,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="221687168"/>
-        <c:axId val="221709824"/>
+        <c:axId val="134183552"/>
+        <c:axId val="134193920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="221687168"/>
+        <c:axId val="134183552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7365,17 +7568,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="221709824"/>
+        <c:crossAx val="134193920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="221709824"/>
+        <c:axId val="134193920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7397,18 +7599,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="221687168"/>
+        <c:crossAx val="134183552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -7424,7 +7624,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7458,7 +7658,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -7594,11 +7793,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="221731840"/>
-        <c:axId val="221754496"/>
+        <c:axId val="134097152"/>
+        <c:axId val="134111616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="221731840"/>
+        <c:axId val="134097152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7619,17 +7818,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="221754496"/>
+        <c:crossAx val="134111616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="221754496"/>
+        <c:axId val="134111616"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -7653,18 +7851,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="221731840"/>
+        <c:crossAx val="134097152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -7680,7 +7876,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7721,7 +7917,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -7900,11 +8095,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="221821952"/>
-        <c:axId val="221836416"/>
+        <c:axId val="134150784"/>
+        <c:axId val="134292224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="221821952"/>
+        <c:axId val="134150784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7925,17 +8120,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="221836416"/>
+        <c:crossAx val="134292224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="221836416"/>
+        <c:axId val="134292224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7957,18 +8151,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="221821952"/>
+        <c:crossAx val="134150784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -7984,7 +8176,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8026,7 +8218,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -8205,11 +8396,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="221887872"/>
-        <c:axId val="222037504"/>
+        <c:axId val="134326912"/>
+        <c:axId val="134333184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="221887872"/>
+        <c:axId val="134326912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8230,17 +8421,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="222037504"/>
+        <c:crossAx val="134333184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="222037504"/>
+        <c:axId val="134333184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8262,18 +8452,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="221887872"/>
+        <c:crossAx val="134326912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -8289,7 +8477,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8331,7 +8519,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -8510,11 +8697,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="222068096"/>
-        <c:axId val="222082560"/>
+        <c:axId val="134360064"/>
+        <c:axId val="134366336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="222068096"/>
+        <c:axId val="134360064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8535,17 +8722,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="222082560"/>
+        <c:crossAx val="134366336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="222082560"/>
+        <c:axId val="134366336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8567,18 +8753,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="222068096"/>
+        <c:crossAx val="134360064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -8594,7 +8778,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8628,7 +8812,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -8764,11 +8947,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="222133248"/>
-        <c:axId val="222139520"/>
+        <c:axId val="134404736"/>
+        <c:axId val="134415104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="222133248"/>
+        <c:axId val="134404736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8789,17 +8972,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="222139520"/>
+        <c:crossAx val="134415104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="222139520"/>
+        <c:axId val="134415104"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -8823,18 +9005,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="222133248"/>
+        <c:crossAx val="134404736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -8850,7 +9030,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8882,7 +9062,7 @@
             </a:br>
             <a:r>
               <a:rPr lang="en-IE" baseline="0"/>
-              <a:t>(2 core 4 thread CPU)</a:t>
+              <a:t>(4 core 8 thread CPU)</a:t>
             </a:r>
             <a:endParaRPr lang="en-IE"/>
           </a:p>
@@ -8912,7 +9092,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$51:$B$58</c:f>
+              <c:f>Sheet2!$B$62:$B$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -8995,11 +9175,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="222217344"/>
-        <c:axId val="222219264"/>
+        <c:axId val="134460928"/>
+        <c:axId val="134462848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="222217344"/>
+        <c:axId val="134460928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9023,14 +9203,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="222219264"/>
+        <c:crossAx val="134462848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="222219264"/>
+        <c:axId val="134462848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9061,7 +9241,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="222217344"/>
+        <c:crossAx val="134460928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9084,7 +9264,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -9132,7 +9312,7 @@
     <xdr:to>
       <xdr:col>51</xdr:col>
       <xdr:colOff>368325</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>182775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -9156,13 +9336,13 @@
     <xdr:from>
       <xdr:col>40</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
       <xdr:colOff>387375</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>154200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -9216,13 +9396,13 @@
     <xdr:from>
       <xdr:col>40</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
       <xdr:colOff>396900</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>116100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -9246,13 +9426,13 @@
     <xdr:from>
       <xdr:col>40</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
       <xdr:colOff>435000</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>106575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -9276,13 +9456,13 @@
     <xdr:from>
       <xdr:col>40</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
       <xdr:colOff>444525</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>106575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -9306,13 +9486,13 @@
     <xdr:from>
       <xdr:col>51</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>63</xdr:col>
       <xdr:colOff>196875</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>135150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -9334,16 +9514,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>262500</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>30975</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>414900</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>11925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9366,13 +9546,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>72000</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>40500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -9387,6 +9567,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>529200</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>50025</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9867,11 +10077,6 @@
             <v>185</v>
           </cell>
         </row>
-        <row r="18">
-          <cell r="B18">
-            <v>577811</v>
-          </cell>
-        </row>
         <row r="19">
           <cell r="B19">
             <v>395879</v>
@@ -9968,36 +10173,6 @@
           </cell>
           <cell r="AM19">
             <v>25279</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20">
-            <v>201341</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21">
-            <v>212394</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22">
-            <v>202346</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23">
-            <v>188840</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24">
-            <v>191017</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25">
-            <v>212472</v>
           </cell>
         </row>
         <row r="30">
@@ -10123,102 +10298,6 @@
           <cell r="I43">
             <v>440</v>
           </cell>
-          <cell r="L43">
-            <v>2224</v>
-          </cell>
-          <cell r="M43">
-            <v>1112</v>
-          </cell>
-          <cell r="N43">
-            <v>698</v>
-          </cell>
-          <cell r="O43">
-            <v>523</v>
-          </cell>
-          <cell r="P43">
-            <v>430</v>
-          </cell>
-          <cell r="Q43">
-            <v>357</v>
-          </cell>
-          <cell r="R43">
-            <v>290</v>
-          </cell>
-          <cell r="S43">
-            <v>266</v>
-          </cell>
-          <cell r="V43">
-            <v>6044</v>
-          </cell>
-          <cell r="W43">
-            <v>2978</v>
-          </cell>
-          <cell r="X43">
-            <v>1963</v>
-          </cell>
-          <cell r="Y43">
-            <v>1456</v>
-          </cell>
-          <cell r="Z43">
-            <v>1166</v>
-          </cell>
-          <cell r="AA43">
-            <v>962</v>
-          </cell>
-          <cell r="AB43">
-            <v>815</v>
-          </cell>
-          <cell r="AC43">
-            <v>713</v>
-          </cell>
-          <cell r="AF43">
-            <v>5299</v>
-          </cell>
-          <cell r="AG43">
-            <v>2595</v>
-          </cell>
-          <cell r="AH43">
-            <v>1688</v>
-          </cell>
-          <cell r="AI43">
-            <v>1258</v>
-          </cell>
-          <cell r="AJ43">
-            <v>988</v>
-          </cell>
-          <cell r="AK43">
-            <v>817</v>
-          </cell>
-          <cell r="AL43">
-            <v>696</v>
-          </cell>
-          <cell r="AM43">
-            <v>602</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="B51">
-            <v>591620</v>
-          </cell>
-          <cell r="E51">
-            <v>151854</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="B52">
-            <v>873678</v>
-          </cell>
-          <cell r="E52">
-            <v>213171</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="B53">
-            <v>1013366</v>
-          </cell>
-          <cell r="E53">
-            <v>227890</v>
-          </cell>
         </row>
         <row r="54">
           <cell r="B54">
@@ -10316,38 +10395,6 @@
           </cell>
           <cell r="AM54">
             <v>134874</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="B55">
-            <v>1066335</v>
-          </cell>
-          <cell r="E55">
-            <v>250788</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="B56">
-            <v>1062478</v>
-          </cell>
-          <cell r="E56">
-            <v>250581</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="B57">
-            <v>1044140</v>
-          </cell>
-          <cell r="E57">
-            <v>246945</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="B58">
-            <v>1039428</v>
-          </cell>
-          <cell r="E58">
-            <v>247347</v>
           </cell>
         </row>
         <row r="65">
@@ -10740,10 +10787,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC69"/>
+  <dimension ref="A1:AC91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="AN25" sqref="AN25"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F100" sqref="F100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11602,7 +11649,7 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -11636,28 +11683,28 @@
         <v>14</v>
       </c>
       <c r="B40">
-        <v>10569</v>
+        <v>14798662</v>
       </c>
       <c r="C40">
-        <v>5298</v>
+        <v>12708629</v>
       </c>
       <c r="D40">
-        <v>3532</v>
+        <v>10844215</v>
       </c>
       <c r="E40">
-        <v>2563</v>
+        <v>9427042</v>
       </c>
       <c r="F40">
-        <v>2077</v>
+        <v>7761090</v>
       </c>
       <c r="G40">
-        <v>1785</v>
+        <v>6657444</v>
       </c>
       <c r="H40">
-        <v>1464</v>
+        <v>5639710</v>
       </c>
       <c r="I40">
-        <v>1288</v>
+        <v>4829082</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -11665,28 +11712,28 @@
         <v>15</v>
       </c>
       <c r="B41">
-        <v>13909</v>
+        <v>11741426</v>
       </c>
       <c r="C41">
-        <v>6725</v>
+        <v>10305959</v>
       </c>
       <c r="D41">
-        <v>4582</v>
+        <v>7505646</v>
       </c>
       <c r="E41">
-        <v>3353</v>
+        <v>7520717</v>
       </c>
       <c r="F41">
-        <v>2688</v>
+        <v>6574094</v>
       </c>
       <c r="G41">
-        <v>2298</v>
+        <v>5654658</v>
       </c>
       <c r="H41">
-        <v>1993</v>
+        <v>4950582</v>
       </c>
       <c r="I41">
-        <v>1700</v>
+        <v>4410205</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -11694,28 +11741,28 @@
         <v>16</v>
       </c>
       <c r="B42">
-        <v>15923</v>
+        <v>10783220</v>
       </c>
       <c r="C42">
-        <v>7750</v>
+        <v>8112362</v>
       </c>
       <c r="D42">
-        <v>5116</v>
+        <v>6884944</v>
       </c>
       <c r="E42">
-        <v>3779</v>
+        <v>6763163</v>
       </c>
       <c r="F42">
-        <v>3166</v>
+        <v>6058598</v>
       </c>
       <c r="G42">
-        <v>2583</v>
+        <v>5272231</v>
       </c>
       <c r="H42">
-        <v>2202</v>
+        <v>4679544</v>
       </c>
       <c r="I42">
-        <v>1890</v>
+        <v>4213563</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -11723,28 +11770,28 @@
         <v>17</v>
       </c>
       <c r="B43">
-        <v>16912</v>
+        <v>9360585</v>
       </c>
       <c r="C43">
-        <v>8265</v>
+        <v>7066403</v>
       </c>
       <c r="D43">
-        <v>5479</v>
+        <v>5852925</v>
       </c>
       <c r="E43">
-        <v>4051</v>
+        <v>5960377</v>
       </c>
       <c r="F43">
-        <v>3217</v>
+        <v>5412663</v>
       </c>
       <c r="G43">
-        <v>2683</v>
+        <v>4899239</v>
       </c>
       <c r="H43">
-        <v>2322</v>
+        <v>4343087</v>
       </c>
       <c r="I43">
-        <v>1989</v>
+        <v>3867846</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -11752,28 +11799,28 @@
         <v>18</v>
       </c>
       <c r="B44">
-        <v>17952</v>
+        <v>8712850</v>
       </c>
       <c r="C44">
-        <v>8497</v>
+        <v>6025041</v>
       </c>
       <c r="D44">
-        <v>5549</v>
+        <v>5861150</v>
       </c>
       <c r="E44">
-        <v>4114</v>
+        <v>5422690</v>
       </c>
       <c r="F44">
-        <v>3270</v>
+        <v>4990060</v>
       </c>
       <c r="G44">
-        <v>2656</v>
+        <v>4480094</v>
       </c>
       <c r="H44">
-        <v>2371</v>
+        <v>3975464</v>
       </c>
       <c r="I44">
-        <v>2024</v>
+        <v>3557071</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -11781,28 +11828,28 @@
         <v>19</v>
       </c>
       <c r="B45">
-        <v>17528</v>
+        <v>8154316</v>
       </c>
       <c r="C45">
-        <v>8519</v>
+        <v>5859015</v>
       </c>
       <c r="D45">
-        <v>5598</v>
+        <v>5142451</v>
       </c>
       <c r="E45">
-        <v>4173</v>
+        <v>4997493</v>
       </c>
       <c r="F45">
-        <v>3320</v>
+        <v>4510949</v>
       </c>
       <c r="G45">
-        <v>2699</v>
+        <v>4109945</v>
       </c>
       <c r="H45">
-        <v>2317</v>
+        <v>3707872</v>
       </c>
       <c r="I45">
-        <v>2002</v>
+        <v>3316573</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -11810,28 +11857,28 @@
         <v>20</v>
       </c>
       <c r="B46">
-        <v>17740</v>
+        <v>7856455</v>
       </c>
       <c r="C46">
-        <v>8336</v>
+        <v>5416112</v>
       </c>
       <c r="D46">
-        <v>5445</v>
+        <v>5247645</v>
       </c>
       <c r="E46">
-        <v>4168</v>
+        <v>4811236</v>
       </c>
       <c r="F46">
-        <v>3307</v>
+        <v>4249034</v>
       </c>
       <c r="G46">
-        <v>2725</v>
+        <v>3872647</v>
       </c>
       <c r="H46">
-        <v>2328</v>
+        <v>3488679</v>
       </c>
       <c r="I46">
-        <v>2037</v>
+        <v>3162700</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -11839,33 +11886,33 @@
         <v>21</v>
       </c>
       <c r="B47">
-        <v>17553</v>
+        <v>6944774</v>
       </c>
       <c r="C47">
-        <v>8430</v>
+        <v>5103680</v>
       </c>
       <c r="D47">
-        <v>5470</v>
+        <v>4570980</v>
       </c>
       <c r="E47">
-        <v>3983</v>
+        <v>4096895</v>
       </c>
       <c r="F47">
-        <v>3254</v>
+        <v>3699613</v>
       </c>
       <c r="G47">
-        <v>2685</v>
+        <v>3340062</v>
       </c>
       <c r="H47">
-        <v>2348</v>
+        <v>3014613</v>
       </c>
       <c r="I47">
-        <v>2005</v>
+        <v>2760766</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -11899,28 +11946,28 @@
         <v>14</v>
       </c>
       <c r="B51">
-        <v>1652489</v>
+        <v>10569</v>
       </c>
       <c r="C51">
-        <v>839233</v>
+        <v>5298</v>
       </c>
       <c r="D51">
-        <v>559744</v>
+        <v>3532</v>
       </c>
       <c r="E51">
-        <v>420047</v>
+        <v>2563</v>
       </c>
       <c r="F51">
-        <v>333526</v>
+        <v>2077</v>
       </c>
       <c r="G51">
-        <v>280026</v>
+        <v>1785</v>
       </c>
       <c r="H51">
-        <v>240205</v>
+        <v>1464</v>
       </c>
       <c r="I51">
-        <v>207055</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -11928,28 +11975,28 @@
         <v>15</v>
       </c>
       <c r="B52">
-        <v>2309579</v>
+        <v>13909</v>
       </c>
       <c r="C52">
-        <v>1167862</v>
+        <v>6725</v>
       </c>
       <c r="D52">
-        <v>721581</v>
+        <v>4582</v>
       </c>
       <c r="E52">
-        <v>513360</v>
+        <v>3353</v>
       </c>
       <c r="F52">
-        <v>407782</v>
+        <v>2688</v>
       </c>
       <c r="G52">
-        <v>321057</v>
+        <v>2298</v>
       </c>
       <c r="H52">
-        <v>279637</v>
+        <v>1993</v>
       </c>
       <c r="I52">
-        <v>233261</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -11957,28 +12004,28 @@
         <v>16</v>
       </c>
       <c r="B53">
-        <v>2775624</v>
+        <v>15923</v>
       </c>
       <c r="C53">
-        <v>1251921</v>
+        <v>7750</v>
       </c>
       <c r="D53">
-        <v>752042</v>
+        <v>5116</v>
       </c>
       <c r="E53">
-        <v>516720</v>
+        <v>3779</v>
       </c>
       <c r="F53">
-        <v>402554</v>
+        <v>3166</v>
       </c>
       <c r="G53">
-        <v>319156</v>
+        <v>2583</v>
       </c>
       <c r="H53">
-        <v>270993</v>
+        <v>2202</v>
       </c>
       <c r="I53">
-        <v>232954</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -11986,28 +12033,28 @@
         <v>17</v>
       </c>
       <c r="B54">
-        <v>2771201</v>
+        <v>16912</v>
       </c>
       <c r="C54">
-        <v>1148209</v>
+        <v>8265</v>
       </c>
       <c r="D54">
-        <v>686888</v>
+        <v>5479</v>
       </c>
       <c r="E54">
-        <v>469088</v>
+        <v>4051</v>
       </c>
       <c r="F54">
-        <v>357823</v>
+        <v>3217</v>
       </c>
       <c r="G54">
-        <v>287425</v>
+        <v>2683</v>
       </c>
       <c r="H54">
-        <v>240052</v>
+        <v>2322</v>
       </c>
       <c r="I54">
-        <v>205451</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -12015,28 +12062,28 @@
         <v>18</v>
       </c>
       <c r="B55">
-        <v>2491567</v>
+        <v>17952</v>
       </c>
       <c r="C55">
-        <v>1060289</v>
+        <v>8497</v>
       </c>
       <c r="D55">
-        <v>628797</v>
+        <v>5549</v>
       </c>
       <c r="E55">
-        <v>438370</v>
+        <v>4114</v>
       </c>
       <c r="F55">
-        <v>333565</v>
+        <v>3270</v>
       </c>
       <c r="G55">
-        <v>270653</v>
+        <v>2656</v>
       </c>
       <c r="H55">
-        <v>225440</v>
+        <v>2371</v>
       </c>
       <c r="I55">
-        <v>195757</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -12044,28 +12091,28 @@
         <v>19</v>
       </c>
       <c r="B56">
-        <v>2365795</v>
+        <v>17528</v>
       </c>
       <c r="C56">
-        <v>1015411</v>
+        <v>8519</v>
       </c>
       <c r="D56">
-        <v>606472</v>
+        <v>5598</v>
       </c>
       <c r="E56">
-        <v>421088</v>
+        <v>4173</v>
       </c>
       <c r="F56">
-        <v>322010</v>
+        <v>3320</v>
       </c>
       <c r="G56">
-        <v>259073</v>
+        <v>2699</v>
       </c>
       <c r="H56">
-        <v>218479</v>
+        <v>2317</v>
       </c>
       <c r="I56">
-        <v>188789</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -12073,28 +12120,28 @@
         <v>20</v>
       </c>
       <c r="B57">
-        <v>2235956</v>
+        <v>17740</v>
       </c>
       <c r="C57">
-        <v>944136</v>
+        <v>8336</v>
       </c>
       <c r="D57">
-        <v>572130</v>
+        <v>5445</v>
       </c>
       <c r="E57">
-        <v>407230</v>
+        <v>4168</v>
       </c>
       <c r="F57">
-        <v>309427</v>
+        <v>3307</v>
       </c>
       <c r="G57">
-        <v>249148</v>
+        <v>2725</v>
       </c>
       <c r="H57">
-        <v>211644</v>
+        <v>2328</v>
       </c>
       <c r="I57">
-        <v>181330</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -12102,33 +12149,33 @@
         <v>21</v>
       </c>
       <c r="B58">
-        <v>2128187</v>
+        <v>17553</v>
       </c>
       <c r="C58">
-        <v>928766</v>
+        <v>8430</v>
       </c>
       <c r="D58">
-        <v>573866</v>
+        <v>5470</v>
       </c>
       <c r="E58">
-        <v>390909</v>
+        <v>3983</v>
       </c>
       <c r="F58">
-        <v>298870</v>
+        <v>3254</v>
       </c>
       <c r="G58">
-        <v>242722</v>
+        <v>2685</v>
       </c>
       <c r="H58">
-        <v>203058</v>
+        <v>2348</v>
       </c>
       <c r="I58">
-        <v>176173</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -12162,28 +12209,28 @@
         <v>14</v>
       </c>
       <c r="B62">
-        <v>102689</v>
+        <v>1652489</v>
       </c>
       <c r="C62">
-        <v>102058</v>
+        <v>839233</v>
       </c>
       <c r="D62">
-        <v>102469</v>
+        <v>559744</v>
       </c>
       <c r="E62">
-        <v>102780</v>
+        <v>420047</v>
       </c>
       <c r="F62">
-        <v>102243</v>
+        <v>333526</v>
       </c>
       <c r="G62">
-        <v>103084</v>
+        <v>280026</v>
       </c>
       <c r="H62">
-        <v>102847</v>
+        <v>240205</v>
       </c>
       <c r="I62">
-        <v>102318</v>
+        <v>207055</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -12191,28 +12238,28 @@
         <v>15</v>
       </c>
       <c r="B63">
-        <v>152952</v>
+        <v>2309579</v>
       </c>
       <c r="C63">
-        <v>152873</v>
+        <v>1167862</v>
       </c>
       <c r="D63">
-        <v>147279</v>
+        <v>721581</v>
       </c>
       <c r="E63">
-        <v>151293</v>
+        <v>513360</v>
       </c>
       <c r="F63">
-        <v>153827</v>
+        <v>407782</v>
       </c>
       <c r="G63">
-        <v>150969</v>
+        <v>321057</v>
       </c>
       <c r="H63">
-        <v>151705</v>
+        <v>279637</v>
       </c>
       <c r="I63">
-        <v>151576</v>
+        <v>233261</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -12220,28 +12267,28 @@
         <v>16</v>
       </c>
       <c r="B64">
-        <v>168777</v>
+        <v>2775624</v>
       </c>
       <c r="C64">
-        <v>167407</v>
+        <v>1251921</v>
       </c>
       <c r="D64">
-        <v>171505</v>
+        <v>752042</v>
       </c>
       <c r="E64">
-        <v>167185</v>
+        <v>516720</v>
       </c>
       <c r="F64">
-        <v>171381</v>
+        <v>402554</v>
       </c>
       <c r="G64">
-        <v>168573</v>
+        <v>319156</v>
       </c>
       <c r="H64">
-        <v>171973</v>
+        <v>270993</v>
       </c>
       <c r="I64">
-        <v>168548</v>
+        <v>232954</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -12249,28 +12296,28 @@
         <v>17</v>
       </c>
       <c r="B65">
-        <v>156952</v>
+        <v>2771201</v>
       </c>
       <c r="C65">
-        <v>147485</v>
+        <v>1148209</v>
       </c>
       <c r="D65">
-        <v>146603</v>
+        <v>686888</v>
       </c>
       <c r="E65">
-        <v>159931</v>
+        <v>469088</v>
       </c>
       <c r="F65">
-        <v>141720</v>
+        <v>357823</v>
       </c>
       <c r="G65">
-        <v>152167</v>
+        <v>287425</v>
       </c>
       <c r="H65">
-        <v>157481</v>
+        <v>240052</v>
       </c>
       <c r="I65">
-        <v>137524</v>
+        <v>205451</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -12278,28 +12325,28 @@
         <v>18</v>
       </c>
       <c r="B66">
-        <v>125054</v>
+        <v>2491567</v>
       </c>
       <c r="C66">
-        <v>126387</v>
+        <v>1060289</v>
       </c>
       <c r="D66">
-        <v>119360</v>
+        <v>628797</v>
       </c>
       <c r="E66">
-        <v>118354</v>
+        <v>438370</v>
       </c>
       <c r="F66">
-        <v>121201</v>
+        <v>333565</v>
       </c>
       <c r="G66">
-        <v>116325</v>
+        <v>270653</v>
       </c>
       <c r="H66">
-        <v>121669</v>
+        <v>225440</v>
       </c>
       <c r="I66">
-        <v>126821</v>
+        <v>195757</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -12307,28 +12354,28 @@
         <v>19</v>
       </c>
       <c r="B67">
-        <v>122141</v>
+        <v>2365795</v>
       </c>
       <c r="C67">
-        <v>120580</v>
+        <v>1015411</v>
       </c>
       <c r="D67">
-        <v>113385</v>
+        <v>606472</v>
       </c>
       <c r="E67">
-        <v>117478</v>
+        <v>421088</v>
       </c>
       <c r="F67">
-        <v>112296</v>
+        <v>322010</v>
       </c>
       <c r="G67">
-        <v>119314</v>
+        <v>259073</v>
       </c>
       <c r="H67">
-        <v>119958</v>
+        <v>218479</v>
       </c>
       <c r="I67">
-        <v>121799</v>
+        <v>188789</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -12336,28 +12383,28 @@
         <v>20</v>
       </c>
       <c r="B68">
-        <v>118193</v>
+        <v>2235956</v>
       </c>
       <c r="C68">
-        <v>119784</v>
+        <v>944136</v>
       </c>
       <c r="D68">
-        <v>118390</v>
+        <v>572130</v>
       </c>
       <c r="E68">
-        <v>119927</v>
+        <v>407230</v>
       </c>
       <c r="F68">
-        <v>118045</v>
+        <v>309427</v>
       </c>
       <c r="G68">
-        <v>120217</v>
+        <v>249148</v>
       </c>
       <c r="H68">
-        <v>117929</v>
+        <v>211644</v>
       </c>
       <c r="I68">
-        <v>119648</v>
+        <v>181330</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -12365,28 +12412,554 @@
         <v>21</v>
       </c>
       <c r="B69">
+        <v>2128187</v>
+      </c>
+      <c r="C69">
+        <v>928766</v>
+      </c>
+      <c r="D69">
+        <v>573866</v>
+      </c>
+      <c r="E69">
+        <v>390909</v>
+      </c>
+      <c r="F69">
+        <v>298870</v>
+      </c>
+      <c r="G69">
+        <v>242722</v>
+      </c>
+      <c r="H69">
+        <v>203058</v>
+      </c>
+      <c r="I69">
+        <v>176173</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="B72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" t="s">
+        <v>9</v>
+      </c>
+      <c r="F72" t="s">
+        <v>10</v>
+      </c>
+      <c r="G72" t="s">
+        <v>11</v>
+      </c>
+      <c r="H72" t="s">
+        <v>12</v>
+      </c>
+      <c r="I72" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" t="s">
+        <v>14</v>
+      </c>
+      <c r="B73">
+        <v>102689</v>
+      </c>
+      <c r="C73">
+        <v>102058</v>
+      </c>
+      <c r="D73">
+        <v>102469</v>
+      </c>
+      <c r="E73">
+        <v>102780</v>
+      </c>
+      <c r="F73">
+        <v>102243</v>
+      </c>
+      <c r="G73">
+        <v>103084</v>
+      </c>
+      <c r="H73">
+        <v>102847</v>
+      </c>
+      <c r="I73">
+        <v>102318</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" t="s">
+        <v>15</v>
+      </c>
+      <c r="B74">
+        <v>152952</v>
+      </c>
+      <c r="C74">
+        <v>152873</v>
+      </c>
+      <c r="D74">
+        <v>147279</v>
+      </c>
+      <c r="E74">
+        <v>151293</v>
+      </c>
+      <c r="F74">
+        <v>153827</v>
+      </c>
+      <c r="G74">
+        <v>150969</v>
+      </c>
+      <c r="H74">
+        <v>151705</v>
+      </c>
+      <c r="I74">
+        <v>151576</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" t="s">
+        <v>16</v>
+      </c>
+      <c r="B75">
+        <v>168777</v>
+      </c>
+      <c r="C75">
+        <v>167407</v>
+      </c>
+      <c r="D75">
+        <v>171505</v>
+      </c>
+      <c r="E75">
+        <v>167185</v>
+      </c>
+      <c r="F75">
+        <v>171381</v>
+      </c>
+      <c r="G75">
+        <v>168573</v>
+      </c>
+      <c r="H75">
+        <v>171973</v>
+      </c>
+      <c r="I75">
+        <v>168548</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" t="s">
+        <v>17</v>
+      </c>
+      <c r="B76">
+        <v>156952</v>
+      </c>
+      <c r="C76">
+        <v>147485</v>
+      </c>
+      <c r="D76">
+        <v>146603</v>
+      </c>
+      <c r="E76">
+        <v>159931</v>
+      </c>
+      <c r="F76">
+        <v>141720</v>
+      </c>
+      <c r="G76">
+        <v>152167</v>
+      </c>
+      <c r="H76">
+        <v>157481</v>
+      </c>
+      <c r="I76">
+        <v>137524</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" t="s">
+        <v>18</v>
+      </c>
+      <c r="B77">
+        <v>125054</v>
+      </c>
+      <c r="C77">
+        <v>126387</v>
+      </c>
+      <c r="D77">
+        <v>119360</v>
+      </c>
+      <c r="E77">
+        <v>118354</v>
+      </c>
+      <c r="F77">
+        <v>121201</v>
+      </c>
+      <c r="G77">
+        <v>116325</v>
+      </c>
+      <c r="H77">
+        <v>121669</v>
+      </c>
+      <c r="I77">
+        <v>126821</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" t="s">
+        <v>19</v>
+      </c>
+      <c r="B78">
+        <v>122141</v>
+      </c>
+      <c r="C78">
+        <v>120580</v>
+      </c>
+      <c r="D78">
+        <v>113385</v>
+      </c>
+      <c r="E78">
+        <v>117478</v>
+      </c>
+      <c r="F78">
+        <v>112296</v>
+      </c>
+      <c r="G78">
+        <v>119314</v>
+      </c>
+      <c r="H78">
+        <v>119958</v>
+      </c>
+      <c r="I78">
+        <v>121799</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" t="s">
+        <v>20</v>
+      </c>
+      <c r="B79">
+        <v>118193</v>
+      </c>
+      <c r="C79">
+        <v>119784</v>
+      </c>
+      <c r="D79">
+        <v>118390</v>
+      </c>
+      <c r="E79">
+        <v>119927</v>
+      </c>
+      <c r="F79">
+        <v>118045</v>
+      </c>
+      <c r="G79">
+        <v>120217</v>
+      </c>
+      <c r="H79">
+        <v>117929</v>
+      </c>
+      <c r="I79">
+        <v>119648</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" t="s">
+        <v>21</v>
+      </c>
+      <c r="B80">
         <v>115790</v>
       </c>
-      <c r="C69">
+      <c r="C80">
         <v>117890</v>
       </c>
-      <c r="D69">
+      <c r="D80">
         <v>112565</v>
       </c>
-      <c r="E69">
+      <c r="E80">
         <v>115808</v>
       </c>
-      <c r="F69">
+      <c r="F80">
         <v>113824</v>
       </c>
-      <c r="G69">
+      <c r="G80">
         <v>117703</v>
       </c>
-      <c r="H69">
+      <c r="H80">
         <v>115257</v>
       </c>
-      <c r="I69">
+      <c r="I80">
         <v>119329</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="B83" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83" t="s">
+        <v>7</v>
+      </c>
+      <c r="D83" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" t="s">
+        <v>9</v>
+      </c>
+      <c r="F83" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83" t="s">
+        <v>11</v>
+      </c>
+      <c r="H83" t="s">
+        <v>12</v>
+      </c>
+      <c r="I83" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" t="s">
+        <v>14</v>
+      </c>
+      <c r="B84">
+        <v>14765559</v>
+      </c>
+      <c r="C84">
+        <v>12939653</v>
+      </c>
+      <c r="D84">
+        <v>11072964</v>
+      </c>
+      <c r="E84">
+        <v>9495043</v>
+      </c>
+      <c r="F84">
+        <v>7824368</v>
+      </c>
+      <c r="G84">
+        <v>6688537</v>
+      </c>
+      <c r="H84">
+        <v>5645110</v>
+      </c>
+      <c r="I84">
+        <v>4814938</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" t="s">
+        <v>15</v>
+      </c>
+      <c r="B85">
+        <v>29636123</v>
+      </c>
+      <c r="C85">
+        <v>25536096</v>
+      </c>
+      <c r="D85">
+        <v>20052289</v>
+      </c>
+      <c r="E85">
+        <v>17290960</v>
+      </c>
+      <c r="F85">
+        <v>15005058</v>
+      </c>
+      <c r="G85">
+        <v>12974005</v>
+      </c>
+      <c r="H85">
+        <v>10988309</v>
+      </c>
+      <c r="I85">
+        <v>9179313</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" t="s">
+        <v>16</v>
+      </c>
+      <c r="B86">
+        <v>41507970</v>
+      </c>
+      <c r="C86">
+        <v>35734023</v>
+      </c>
+      <c r="D86">
+        <v>27649942</v>
+      </c>
+      <c r="E86">
+        <v>24603236</v>
+      </c>
+      <c r="F86">
+        <v>20322734</v>
+      </c>
+      <c r="G86">
+        <v>17880356</v>
+      </c>
+      <c r="H86">
+        <v>15240013</v>
+      </c>
+      <c r="I86">
+        <v>13192415</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" t="s">
+        <v>17</v>
+      </c>
+      <c r="B87">
+        <v>52736904</v>
+      </c>
+      <c r="C87">
+        <v>44347719</v>
+      </c>
+      <c r="D87">
+        <v>34653927</v>
+      </c>
+      <c r="E87">
+        <v>29814895</v>
+      </c>
+      <c r="F87">
+        <v>25595849</v>
+      </c>
+      <c r="G87">
+        <v>21768951</v>
+      </c>
+      <c r="H87">
+        <v>18675743</v>
+      </c>
+      <c r="I87">
+        <v>15605845</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" t="s">
+        <v>18</v>
+      </c>
+      <c r="B88">
+        <v>59443895</v>
+      </c>
+      <c r="C88">
+        <v>49740068</v>
+      </c>
+      <c r="D88">
+        <v>38937134</v>
+      </c>
+      <c r="E88">
+        <v>33104604</v>
+      </c>
+      <c r="F88">
+        <v>27962936</v>
+      </c>
+      <c r="G88">
+        <v>24243339</v>
+      </c>
+      <c r="H88">
+        <v>20928995</v>
+      </c>
+      <c r="I88">
+        <v>17960562</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" t="s">
+        <v>19</v>
+      </c>
+      <c r="B89">
+        <v>66430795</v>
+      </c>
+      <c r="C89">
+        <v>55180334</v>
+      </c>
+      <c r="D89">
+        <v>42958219</v>
+      </c>
+      <c r="E89">
+        <v>36677952</v>
+      </c>
+      <c r="F89">
+        <v>30362112</v>
+      </c>
+      <c r="G89">
+        <v>25803350</v>
+      </c>
+      <c r="H89">
+        <v>22962479</v>
+      </c>
+      <c r="I89">
+        <v>19983314</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" t="s">
+        <v>20</v>
+      </c>
+      <c r="B90">
+        <v>72518727</v>
+      </c>
+      <c r="C90">
+        <v>60538509</v>
+      </c>
+      <c r="D90">
+        <v>47314643</v>
+      </c>
+      <c r="E90">
+        <v>39493009</v>
+      </c>
+      <c r="F90">
+        <v>34015227</v>
+      </c>
+      <c r="G90">
+        <v>28932306</v>
+      </c>
+      <c r="H90">
+        <v>25063856</v>
+      </c>
+      <c r="I90">
+        <v>21869236</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" t="s">
+        <v>21</v>
+      </c>
+      <c r="B91">
+        <v>75969911</v>
+      </c>
+      <c r="C91">
+        <v>62939410</v>
+      </c>
+      <c r="D91">
+        <v>48350057</v>
+      </c>
+      <c r="E91">
+        <v>41474561</v>
+      </c>
+      <c r="F91">
+        <v>34922485</v>
+      </c>
+      <c r="G91">
+        <v>30450913</v>
+      </c>
+      <c r="H91">
+        <v>26096681</v>
+      </c>
+      <c r="I91">
+        <v>22544901</v>
       </c>
     </row>
   </sheetData>
@@ -12396,6 +12969,26 @@
     <mergeCell ref="U4:AC4"/>
   </mergeCells>
   <conditionalFormatting sqref="B18:I25">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00FF00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29:I36">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -12415,7 +13008,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B29:I36">
+  <conditionalFormatting sqref="B7:I14">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -12435,7 +13028,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7:I14">
+  <conditionalFormatting sqref="B7:I36">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -12455,7 +13048,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7:I36">
+  <conditionalFormatting sqref="B51:I80">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B51:I58">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -12466,16 +13071,8 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00FF00"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B40:I69">
+  <conditionalFormatting sqref="B62:I69">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -12487,7 +13084,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B40:I47">
+  <conditionalFormatting sqref="B73:I80">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -12499,7 +13096,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B51:I58">
+  <conditionalFormatting sqref="L7:S14">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -12511,7 +13108,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B62:I69">
+  <conditionalFormatting sqref="L18:S25">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -12523,7 +13120,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L7:S14">
+  <conditionalFormatting sqref="L29:S36">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -12535,7 +13132,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L18:S25">
+  <conditionalFormatting sqref="L51:S58">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -12547,7 +13144,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L29:S36">
+  <conditionalFormatting sqref="L62:S69">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -12559,7 +13156,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L40:S47">
+  <conditionalFormatting sqref="L73:S80">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -12571,7 +13168,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L51:S58">
+  <conditionalFormatting sqref="V73:AC80">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -12583,7 +13180,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L62:S69">
+  <conditionalFormatting sqref="V62:AC69">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -12595,7 +13192,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V62:AC69">
+  <conditionalFormatting sqref="V51:AC58">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -12607,7 +13204,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V51:AC58">
+  <conditionalFormatting sqref="V29:AC36">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -12619,7 +13216,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V40:AC47">
+  <conditionalFormatting sqref="V18:AC25">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -12631,7 +13228,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V29:AC36">
+  <conditionalFormatting sqref="V7:AC14">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -12643,8 +13240,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V18:AC25">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="B39:I39">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -12654,16 +13251,12 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V7:AC14">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
         <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00FF00"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -12677,7 +13270,7 @@
   <dimension ref="A1:R69"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:E3"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/graphs/benchmark_locking 4x i7-3770K @ 3.50Ghz Win10 20.075Gb bandwidth.xlsx
+++ b/graphs/benchmark_locking 4x i7-3770K @ 3.50Ghz Win10 20.075Gb bandwidth.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="255" yWindow="60" windowWidth="28320" windowHeight="17280"/>
+    <workbookView xWindow="255" yWindow="60" windowWidth="21840" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -225,7 +225,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -243,6 +243,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -292,11 +293,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="132122496"/>
-        <c:axId val="132124672"/>
+        <c:axId val="103801216"/>
+        <c:axId val="103803520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="132122496"/>
+        <c:axId val="103801216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -317,16 +318,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="132124672"/>
+        <c:crossAx val="103803520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="132124672"/>
+        <c:axId val="103803520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -348,16 +350,18 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="132122496"/>
+        <c:crossAx val="103801216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -373,7 +377,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -381,7 +385,7 @@
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -394,7 +398,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-IE" baseline="0"/>
-              <a:t>How many uncontended entities equals single contended lock</a:t>
+              <a:t>How many uncontended entities equals single contended byte range lock</a:t>
             </a:r>
             <a:br>
               <a:rPr lang="en-IE" baseline="0"/>
@@ -466,6 +470,9 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Uncontended 5 entities</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="50800">
               <a:solidFill>
@@ -511,11 +518,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="134492544"/>
-        <c:axId val="134494464"/>
+        <c:axId val="132017152"/>
+        <c:axId val="132031616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="134492544"/>
+        <c:axId val="132017152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -539,14 +546,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134494464"/>
+        <c:crossAx val="132031616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="134494464"/>
+        <c:axId val="132031616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -577,7 +584,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134492544"/>
+        <c:crossAx val="132017152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -600,7 +607,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -608,7 +615,7 @@
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -745,11 +752,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="135454720"/>
-        <c:axId val="139734400"/>
+        <c:axId val="132061056"/>
+        <c:axId val="132075520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="135454720"/>
+        <c:axId val="132061056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -773,14 +780,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139734400"/>
+        <c:crossAx val="132075520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="139734400"/>
+        <c:axId val="132075520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -811,7 +818,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135454720"/>
+        <c:crossAx val="132061056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -834,7 +841,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -842,7 +849,7 @@
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1541,24 +1548,24 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="134820608"/>
-        <c:axId val="134822144"/>
+        <c:axId val="132432640"/>
+        <c:axId val="132434176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="134820608"/>
+        <c:axId val="132432640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134822144"/>
+        <c:crossAx val="132434176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="134822144"/>
+        <c:axId val="132434176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="18000"/>
@@ -1584,7 +1591,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134820608"/>
+        <c:crossAx val="132432640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1596,7 +1603,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1604,7 +1611,7 @@
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2303,24 +2310,24 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="134885376"/>
-        <c:axId val="134886912"/>
+        <c:axId val="132489216"/>
+        <c:axId val="132490752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="134885376"/>
+        <c:axId val="132489216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134886912"/>
+        <c:crossAx val="132490752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="134886912"/>
+        <c:axId val="132490752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3000000"/>
@@ -2346,7 +2353,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134885376"/>
+        <c:crossAx val="132489216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2358,7 +2365,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2366,7 +2373,7 @@
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3061,24 +3068,24 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="134946176"/>
-        <c:axId val="134952064"/>
+        <c:axId val="132537728"/>
+        <c:axId val="132560000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="134946176"/>
+        <c:axId val="132537728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134952064"/>
+        <c:crossAx val="132560000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="134952064"/>
+        <c:axId val="132560000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="180000"/>
@@ -3104,7 +3111,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134946176"/>
+        <c:crossAx val="132537728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3116,7 +3123,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3124,7 +3131,7 @@
 
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3335,24 +3342,24 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="134977792"/>
-        <c:axId val="135012352"/>
+        <c:axId val="132577536"/>
+        <c:axId val="132673536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="134977792"/>
+        <c:axId val="132577536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135012352"/>
+        <c:crossAx val="132673536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="135012352"/>
+        <c:axId val="132673536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2500000"/>
@@ -3378,7 +3385,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134977792"/>
+        <c:crossAx val="132577536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3390,7 +3397,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3398,7 +3405,7 @@
 
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3609,24 +3616,24 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="135026560"/>
-        <c:axId val="135028096"/>
+        <c:axId val="132704128"/>
+        <c:axId val="132705664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="135026560"/>
+        <c:axId val="132704128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135028096"/>
+        <c:crossAx val="132705664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="135028096"/>
+        <c:axId val="132705664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2500000"/>
@@ -3652,7 +3659,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135026560"/>
+        <c:crossAx val="132704128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3664,7 +3671,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3672,7 +3679,7 @@
 
 <file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3883,24 +3890,24 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="135144576"/>
-        <c:axId val="135146112"/>
+        <c:axId val="132613248"/>
+        <c:axId val="132614784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="135144576"/>
+        <c:axId val="132613248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135146112"/>
+        <c:crossAx val="132614784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="135146112"/>
+        <c:axId val="132614784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2500000"/>
@@ -3926,7 +3933,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135144576"/>
+        <c:crossAx val="132613248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3938,7 +3945,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3946,7 +3953,7 @@
 
 <file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -4645,24 +4652,24 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="135086080"/>
-        <c:axId val="135087616"/>
+        <c:axId val="132804608"/>
+        <c:axId val="132806144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="135086080"/>
+        <c:axId val="132804608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135087616"/>
+        <c:crossAx val="132806144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="135087616"/>
+        <c:axId val="132806144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4687,7 +4694,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135086080"/>
+        <c:crossAx val="132804608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4699,7 +4706,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4707,7 +4714,7 @@
 
 <file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -5406,24 +5413,24 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="135207936"/>
-        <c:axId val="135222016"/>
+        <c:axId val="132873216"/>
+        <c:axId val="132883200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="135207936"/>
+        <c:axId val="132873216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135222016"/>
+        <c:crossAx val="132883200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="135222016"/>
+        <c:axId val="132883200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5448,7 +5455,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135207936"/>
+        <c:crossAx val="132873216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5460,7 +5467,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5468,7 +5475,7 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -5494,6 +5501,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -5672,11 +5680,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="132180224"/>
-        <c:axId val="134156672"/>
+        <c:axId val="131638400"/>
+        <c:axId val="131640320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="132180224"/>
+        <c:axId val="131638400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5697,16 +5705,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134156672"/>
+        <c:crossAx val="131640320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="134156672"/>
+        <c:axId val="131640320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5728,16 +5737,18 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="132180224"/>
+        <c:crossAx val="131638400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -5753,7 +5764,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5761,7 +5772,7 @@
 
 <file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -6456,24 +6467,24 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="135272704"/>
-        <c:axId val="135278592"/>
+        <c:axId val="132741376"/>
+        <c:axId val="132755456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="135272704"/>
+        <c:axId val="132741376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135278592"/>
+        <c:crossAx val="132755456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="135278592"/>
+        <c:axId val="132755456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6498,7 +6509,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135272704"/>
+        <c:crossAx val="132741376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6510,7 +6521,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6518,7 +6529,7 @@
 
 <file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -6729,24 +6740,24 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="135304704"/>
-        <c:axId val="135306240"/>
+        <c:axId val="132769280"/>
+        <c:axId val="132770816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="135304704"/>
+        <c:axId val="132769280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135306240"/>
+        <c:crossAx val="132770816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="135306240"/>
+        <c:axId val="132770816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6771,7 +6782,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135304704"/>
+        <c:crossAx val="132769280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6783,7 +6794,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6791,7 +6802,7 @@
 
 <file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -7002,24 +7013,24 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="135357184"/>
-        <c:axId val="135358720"/>
+        <c:axId val="133022464"/>
+        <c:axId val="133024000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="135357184"/>
+        <c:axId val="133022464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135358720"/>
+        <c:crossAx val="133024000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="135358720"/>
+        <c:axId val="133024000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2500000"/>
@@ -7045,7 +7056,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135357184"/>
+        <c:crossAx val="133022464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7057,7 +7068,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7065,7 +7076,7 @@
 
 <file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -7276,24 +7287,24 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="135405568"/>
-        <c:axId val="135407104"/>
+        <c:axId val="132939776"/>
+        <c:axId val="132941312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="135405568"/>
+        <c:axId val="132939776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135407104"/>
+        <c:crossAx val="132941312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="135407104"/>
+        <c:axId val="132941312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2500000"/>
@@ -7319,7 +7330,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135405568"/>
+        <c:crossAx val="132939776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7331,7 +7342,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7339,7 +7350,7 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -7543,11 +7554,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="134183552"/>
-        <c:axId val="134193920"/>
+        <c:axId val="131683840"/>
+        <c:axId val="131685760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="134183552"/>
+        <c:axId val="131683840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7570,14 +7581,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134193920"/>
+        <c:crossAx val="131685760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="134193920"/>
+        <c:axId val="131685760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7602,7 +7613,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134183552"/>
+        <c:crossAx val="131683840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7624,7 +7635,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7632,7 +7643,7 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -7658,6 +7669,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -7674,33 +7686,33 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>[1]Sheet2!$B$43:$I$43</c:f>
+              <c:f>Sheet2!$B$54:$I$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>3742</c:v>
+                  <c:v>16912</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1884</c:v>
+                  <c:v>8265</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1204</c:v>
+                  <c:v>5479</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>906</c:v>
+                  <c:v>4051</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>746</c:v>
+                  <c:v>3217</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>608</c:v>
+                  <c:v>2683</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>510</c:v>
+                  <c:v>2322</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>440</c:v>
+                  <c:v>1989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7710,40 +7722,40 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>byte range</c:v>
+            <c:v>Byte Ranges</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>[1]Sheet2!$B$54:$I$54</c:f>
+              <c:f>Sheet2!$B$65:$I$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1077461</c:v>
+                  <c:v>2771201</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>535494</c:v>
+                  <c:v>1148209</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>348619</c:v>
+                  <c:v>686888</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>245531</c:v>
+                  <c:v>469088</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>197498</c:v>
+                  <c:v>357823</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>155970</c:v>
+                  <c:v>287425</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>138553</c:v>
+                  <c:v>240052</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>118115</c:v>
+                  <c:v>205451</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7760,44 +7772,44 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>[1]Sheet2!$B$65:$I$65</c:f>
+              <c:f>Sheet2!$B$76:$I$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>86871</c:v>
+                  <c:v>156952</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>87444</c:v>
+                  <c:v>147485</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>87234</c:v>
+                  <c:v>146603</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>89427</c:v>
+                  <c:v>159931</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>85681</c:v>
+                  <c:v>141720</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>88254</c:v>
+                  <c:v>152167</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>87496</c:v>
+                  <c:v>157481</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>88889</c:v>
+                  <c:v>137524</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="134097152"/>
-        <c:axId val="134111616"/>
+        <c:axId val="131736704"/>
+        <c:axId val="131738624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="134097152"/>
+        <c:axId val="131736704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7818,16 +7830,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134111616"/>
+        <c:crossAx val="131738624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="134111616"/>
+        <c:axId val="131738624"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -7851,16 +7864,18 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134097152"/>
+        <c:crossAx val="131736704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -7876,7 +7891,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7884,7 +7899,7 @@
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -8095,11 +8110,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="134150784"/>
-        <c:axId val="134292224"/>
+        <c:axId val="131782144"/>
+        <c:axId val="131784064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="134150784"/>
+        <c:axId val="131782144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8122,14 +8137,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134292224"/>
+        <c:crossAx val="131784064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="134292224"/>
+        <c:axId val="131784064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8154,7 +8169,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134150784"/>
+        <c:crossAx val="131782144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8176,7 +8191,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8184,7 +8199,7 @@
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -8396,11 +8411,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="134326912"/>
-        <c:axId val="134333184"/>
+        <c:axId val="131815296"/>
+        <c:axId val="131842048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="134326912"/>
+        <c:axId val="131815296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8423,14 +8438,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134333184"/>
+        <c:crossAx val="131842048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="134333184"/>
+        <c:axId val="131842048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8455,7 +8470,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134326912"/>
+        <c:crossAx val="131815296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8477,7 +8492,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8485,7 +8500,7 @@
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -8697,11 +8712,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="134360064"/>
-        <c:axId val="134366336"/>
+        <c:axId val="131885312"/>
+        <c:axId val="131887488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="134360064"/>
+        <c:axId val="131885312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8724,14 +8739,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134366336"/>
+        <c:crossAx val="131887488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="134366336"/>
+        <c:axId val="131887488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8756,7 +8771,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134360064"/>
+        <c:crossAx val="131885312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8778,7 +8793,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8786,7 +8801,7 @@
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -8947,11 +8962,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="134404736"/>
-        <c:axId val="134415104"/>
+        <c:axId val="131934080"/>
+        <c:axId val="131940352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="134404736"/>
+        <c:axId val="131934080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8974,14 +8989,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134415104"/>
+        <c:crossAx val="131940352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="134415104"/>
+        <c:axId val="131940352"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -9008,7 +9023,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134404736"/>
+        <c:crossAx val="131934080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9030,7 +9045,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -9038,7 +9053,7 @@
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -9175,11 +9190,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="134460928"/>
-        <c:axId val="134462848"/>
+        <c:axId val="131985792"/>
+        <c:axId val="131987712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="134460928"/>
+        <c:axId val="131985792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9203,14 +9218,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134462848"/>
+        <c:crossAx val="131987712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="134462848"/>
+        <c:axId val="131987712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9241,7 +9256,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134460928"/>
+        <c:crossAx val="131985792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9264,7 +9279,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10273,32 +10288,6 @@
             <v>116452</v>
           </cell>
         </row>
-        <row r="43">
-          <cell r="B43">
-            <v>3742</v>
-          </cell>
-          <cell r="C43">
-            <v>1884</v>
-          </cell>
-          <cell r="D43">
-            <v>1204</v>
-          </cell>
-          <cell r="E43">
-            <v>906</v>
-          </cell>
-          <cell r="F43">
-            <v>746</v>
-          </cell>
-          <cell r="G43">
-            <v>608</v>
-          </cell>
-          <cell r="H43">
-            <v>510</v>
-          </cell>
-          <cell r="I43">
-            <v>440</v>
-          </cell>
-        </row>
         <row r="54">
           <cell r="B54">
             <v>1077461</v>
@@ -10789,8 +10778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AC91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F100" sqref="F100"/>
+    <sheetView tabSelected="1" topLeftCell="AS1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H105" sqref="H105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
